--- a/data/anthemworld_anthems.xlsx
+++ b/data/anthemworld_anthems.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="659">
   <si>
     <t xml:space="preserve">region</t>
   </si>
@@ -32,334 +32,478 @@
     <t xml:space="preserve">African Union</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/African_Union.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">http://anthemworld.com/African_Union.html  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us all unite and celebrate together     The victories won for our liberation     Let us dedicate ourselves to rise together     To defend our liberty and unity     O Sons and Daughters of Africa     Flesh of the Sun and Flesh of the Sky     Let us make Africa the Tree of Life     Let us all unite and sing together     To uphold the bonds that frame our destiny     Let us dedicate ourselves to fight together     For lasting peace and justice on earth     O Sons and Daughters of Africa     Flesh of the Sun and Flesh of the Sky     Let us make Africa the Tree of Life     Let us all unite and toil together     To give the best we have to Africa     The cradle of mankind and fount of culture     Our pride and hope at break of dawn.     O Sons and Daughters of Africa     Flesh of the Sun and Flesh of the Sky     Let us make Africa the Tree of Life</t>
   </si>
   <si>
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Algeria.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Algeria.html  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We swear by the lightning that destroys, By the streams of generous blood being shed, By the bright flags that wave, Flying proudly on the high djebels, That we are in revolt, whether to live or to die, We are determined that Algeria should live, So be our witness -be our witness -be our witness!  We are soldiers in revolt for truth And we have fought for our independence. When we spoke, nobody listened to us, So we have taken the noise of gunpowder as our rhythm And the sound of machine guns as our melody, We are determined that Algeria should live, So be our witness -be our witness -be our witness!  Ô France! Past is the time of palavers  We closed it as we close a book Ô France!  The day to settle the accounts has come! Prepare yourself! Here is our answer! The verdict, our Revolution will return it  We are determined that Algeria should live, So be our witness - be our witness - be our witness! From our heroes we shall make an army come to being, From our dead we shall build up a glory, Our spirits shall ascend to immortality And on our shoulders we shall raise the Standard. To the nation's Liberation Front we have sworn an oath, We are determined that Algeria should live, So be our witness -be our witness -be our witness!  The cry of the Fatherland sounds from the battlefields. Listen to it and answer the call! Let it be written with the blood of martyrs And be read to future generations. Oh, Glory, we have held out our hand to you, We are determined that Algeria should live, So be our witness -be our witness -be our witness!</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Angola.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Angola.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Fatherland, we shall never forget The heroes of the Fourth of February. O Fatherland, we salute your sons Who died for our Independence. We honour the past and our history As by our work we build the New Man. We honour the past and our history As by our work we build the New Man. CHORUS (twice) Forward, Angola! Revolution through the power of the People! A United Country, Freedom, One People, one Nation! Let us raise our liberated voices To the glory of the peoples of Africa. We shall march, Angolan fighters, In solidarity with oppressed peoples. We shall fight proudly for Peace Along with the progressive forces of the world. We shall fight proudly for Peace Along with the progressive forces of the world.</t>
   </si>
   <si>
     <t xml:space="preserve">Benin</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Benin.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Benin.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formerly, at her call, our ancestors Knew how to engage in mighty battles With strength, courage, ardour, and full of joy, but at the price of blood. Builders of the present, you too, join forces Each day for the task stronger in unity. Build without ceasing for posterity. CHORUS Children of Bénin, arise! The resounding cry of freedom Is heard at the first light of dawn; Children of Bénin, arise! When all around there blows a wind of anger and hate: Citizen of Bénin, be proud, and in a calm spirit Trusting in the future, behold your flag! In the green you read hope of spring; The red signifies the courage of your ancestors; The yellow foretells the richest treasures. CHORUS Beloved Bènin, your sunny mountains, palm trees, and green pastures Show everywhere your brightness; Your soil offers everyone the richest fruits. Bénin, from henceforth your sons are united With one brotherly spirit sharing the hope of seeing you Enjoy abundance and happiness for ever. CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Bostwana</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bostwana.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bostwana.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessèd be this noble land, Gift to us from God's strong hand, Heritage our fathers left to us. May it always be at peace. CHORUS Awake, awake, O men, awake! And women close beside them stand, Together we'll work and serve This land, this happy land! Word of beauty and of fame, The name Botswana to us came. Through our unity and harmony, We'll remain at peace as one. CHORUS Awake, awake, O men, awake! And women close beside them stand, Together we'll work and serve This land, this happy land!</t>
   </si>
   <si>
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Burkina_Faso.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Burkina_Faso.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Against the humiliating bondage of a thousand years Rapacity came from afar to subjugate them for a hundred years. Against the cynical malice in the shape Of neo-colonialism and its petty local servants. Many gave in and certain others resisted. But the frustrations, the successes, the sweat, the blood Have fortified our courageous people and fertilized its heroic struggle.  CHORUS And one single night has drawn together The history of an entire people, And one single night has launched its triumphal march. Towards the horizon of good fortune. One single night has brought together our people With all the peoples of the World, In the acquisition of liberty and progress. Motherland or death, we shall conquer. Nourished in the lively source of the Revolution, The volunteers for liberty and peace With their nocturnal and beneficial energies of the 4 of August Had not only hand arms, but also and above all The flame in their hearts lawfully to free Faso forever from the fetters of those who Here and there were polluting the sacred soul of independence and sovereignty.  CHORUS And seated henceforth in rediscovered dignity, Love and honour partnered with humanity, The people of Burkina sing a victory hymn To the glory of the work of liberation and emancipation. Down with exploitation of man by man! Forward for the good of every man By all men of today and tomorrow, by every man here and always! CHORUS Popular revolution our nourishing sap. Undying motherhood of progress in the face of man. Eternal hearth of agreed democracy, Where at last national identity has the right of freedom. Where injustice has lost its place forever, And where from the hands of builders of a glorious world Everywhere the harvests of patriotic vows ripen and suns of boundless joy shine. CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Burundi.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Burundi.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beloved Burundi, gentle country, Take your place in the concert of nations, Acceding to independence with honourable intentions. Wounded and bruised, you have remained master of yourself.  When the hour came, you arose, Lifting yourself proudly into the ranks of free peoples. Receive, then, the congratulations of the nations And the homage of your sons. May your name ring out through the universe.  Beloved Burundi, sacred heritage from our forefathers, Recognized as worthy of self-government, With your courage you also have a sense of honour. Sing the glory of liberty conquered again. Beloved Burundi, worthy of our tenderest love, We vow to your noble service our hands and hearts and lives. May God, who gave you to us, keep you for us to venerate, Under the shield of unity, In peace, joy and prosperity.</t>
   </si>
   <si>
     <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cameroon.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cameroon.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Cameroon, thou cradle of our fathers, Proudly rally to defend your liberty. And like the sun, your flag will be resplendent, As a symbol of your faith and unity. May all your children follow the command, From East and West to give their heart, Their only wish to serve their land And with constancy play their part. CHORUS This our land that we all love so, On you our whole happiness is stayed. You're our joy and you're our life too; To you be honour and love displayed. You are the tomb where our fathers are resting, You're the garden they prepared and they conceived, We work that you may become fair and prosp'rous, And one day at last we'll see all achieved. May you be a faithful child of Africa, Advancing steadily in peace, In hope that ev'ry young child of yours Will love you until time shall cease.</t>
   </si>
   <si>
     <t xml:space="preserve">Cape Verde</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cape_Verde.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cape_Verde.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sing, brother Sing, my brother For Freedom is a hymn And Man a certainty. With dignity, bury the seed In the dust of the naked island: In life ís precipice Hope is as big as the sea  Which embraces us. Unwavering sentinel of the seas and winds Between the stars and the Atlantic ocean Sing the Chant of Freedom.</t>
   </si>
   <si>
     <t xml:space="preserve">Central African Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Central_African_Republic.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Central_African_Republic.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh! Central Africa, cradle of the Bantu!     Take up again your right to respect, to life!     Long subjugated, long scorned by all,     But, from today, breaking tyranny's hold.     Through work, order and dignity     You reconquer your rights, your unity,     And to take this new step     The voice of our ancestors call us.         Chorus:         To work! In order and dignity,         In the respect for rights and in unity,         Breaking poverty and tyranny,         Holding high the flag of the Fatherland.</t>
   </si>
   <si>
     <t xml:space="preserve">Chad</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Chad.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Chad.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People of Chad, arise and take up the task! You have conquered your soil and won your rights; Your freedom will be born of your courage. Lift up your eyes, the future is yours Oh, my Country, may God protect you, May your neighbours admire your children. Joyful, peaceful, advance as you sing, Faithful to your fathers who are watching you.</t>
   </si>
   <si>
     <t xml:space="preserve">Comoros</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Comoros.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Democratic Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://anthemworld.com/Congo,_Democratic_Republic_of.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://anthemworld.com/Congo,_Republic_of.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Comoros.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flag is flying, Announcing complete independence; The nation rises up Because of the faith we have In this our Comoria. Let us always have devotion To love our Great Islands. We Comorians are of one blood, We Comorians are of one faith. On these Islands we were born, These Islands brought us up. May God always help us; Let us always have the firm resolve To love our fatherland, Love our religion and the world. The flag is flying. From the Sixth of July The Nation rises up; Our Islands are lined up. Maori and Anzuan, Moheli and Comore, Let us always have devotion To love our Great Islands.</t>
   </si>
   <si>
     <t xml:space="preserve">Cote dvoire</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cote_dvoire.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cote_dvoire.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We salute you, O land of hope,     Country of hospitality;     Thy full gallant legions     Have restored thy dignity.     Beloved Ivory Coast, thy sons,     Proud builders of thy greatness,     All not mustered together for thy glory,     In joy will we construct thee.     Proud citizens of the Ivory Coast, the country call us.     If we have brought back liberty peacefully,     It will be our duty to be an example     Of the hope promised to humanity,     Forging unitedly in new faith     The Fatherland of true brotherhood.</t>
   </si>
   <si>
     <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Djibouti.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Djibouti.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arise with strength! For we have raised our flag, The flag which has cost us dear With extremes of thirst and pain. Our flag, whose colours are the everlasting green of the earth, The blue of the sky, and white, the colour of peace; And in the centre the red star of blood. Oh flag of ours, what a glorious sight!</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Egypt.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Egypt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My country, my country, my country,         You have my love and my majesty.         My country, my country, my country,         You have my love and my majesty.     Egypt! O mother of all lands,     you are my hope and my ambition,     And above all people     Your Nile has countless graces         Chorus     Egypt! Most precious gem,     A blaze on the brow of eternity!     O my homeland, be for ever free,     Safe from every enemy!         Chorus     Egypt, land of bounties     You are filled with the ancient glory     My purpose is to repel the enemy     And on God I rely         Chorus     Egypt, noble are thy children.     Loyal, and guardians of the reins.     Be we at war or peace     We will sacrifice ourselves for you, my country.         Chorus</t>
   </si>
   <si>
     <t xml:space="preserve">Equatorial Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Equatorial_Guinea.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Equatorial_Guinea.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us walk the path     Of our great happiness.     In brotherhood, without separation,     Freedom Sing!     After two centuries of being subjected     Under colonial rule,     In fraternal union, without discrimination,     Freedom Sing!     Let us shout live Guinea,     Defend our freedom.     Sing always free Guinea,     And always retain the unit.     Let us shout live Guinea,     Defend our freedom.     Sing always free Guinea,     And always preserve national independence     And we preserve and conserve     National independence.</t>
   </si>
   <si>
     <t xml:space="preserve">Eritrea</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Eritrea.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Eritrea.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea, Eritrea, Eritrea, Her arch-enemy destroyed wailingly, her sacrifices vindicated by freedom. She holds firmly her goal, her name has come to mean perseverance and steadfastness, Eritrea, the pride of the oppressed people, is a testament that truth prevails. Eritrea, Eritrea, has taken her rightful place in the world. The supreme dedication that brought her liberation, will serve to rebuild her and make her green, We shall honour her with progress, It is our legacy to embellish her. Eritrea, Eritrea, has taken her rightful place in the world.</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Ethiopia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Ethiopia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respect for citizenship is strong in our Ethiopia; National pride is seen, shining from one side to another. For peace, for justice, for the freedom of peoples, In equality and in love we stand united. Firm of foundation, we do not dismiss humanness; We are peoples who live through work. Wonderful is the stage of tradition, mistress of proud heritage, Mother of natural virtue, mother of a valorous people. We shall protect you - we have a duty; Our Ethiopia, live! And let us be proud of you!</t>
   </si>
   <si>
     <t xml:space="preserve">Gabon</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Gabon.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Gabon.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United in concord and brotherhood, Awake, Gabon, dawn is at hand. Stir up the spirit that thrills and inspires us! At last we rise up to attain happiness. Dazzling and proud, the sublime day dawns, Dispelling for ever injustice and shame. May it still advance and calm our fears, May it promote virtue and banish warfare. CHORUS Yes, may the happy days of which our ancestors dreamed  Come for us at last, rejoicing our hearts,  And banish the sorcerers, those perfidious deceivers  Who sowed poison and spread fear.  CHORUS  So that, in the eyes of the world and of friendly nations,  The immortal Gabon may maintain her good repute,  Let us forget our quarrels, let us build together  The new structure of which we all have dreamed.  CHORUS  From the shores of the Ocean to the heart of the forest,  Let us remain vigilant, without weakness and without hatred!  Around this flag which leads us to honour,  Let us salute the Fatherland and ever sing!  CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Gambia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Gambia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Gambia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For The Gambia, our homeland We strive and work and pray, That all may live in unity, Freedom and peace each day. Let justice guide our actions Towards the common good, And join our diverse peoples To prove man's brotherhood. We pledge our firm allegiance, Our promise we renew; Keep us, great God of nations, To The Gambia ever true.</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Ghana.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Ghana.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God bless our homeland Ghana And make our nation great and strong, Bold to defend forever The cause of Freedom and of Right; Fill our hearts with true humility, Make us cherish fearless honesty, And help us to resist oppressors' rule With all our will and might for evermore. Second stanza Hail to thy name, O Ghana, To thee we make our solemn vow: Steadfast to build together A nation strong in Unity; With our gifts of mind and strength of arm, Whether night or day, in the midst of storm, In ev'ry need, whate'er the call may be, To serve thee, Ghana, now and evermore. Third stanza Raise high the flag of Ghana and one with Africa advance; Black star of hope and honour To all who thirst for liberty; Where the banner of Ghana freely flies, May the way to freedom truly lie; Arise, arise, O sons of Ghana land, And under God march on for evermore!</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Guinea.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Guinea.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People of Africa!     The historic past!     Sing the hymn of a Guinea proud and young     Illustrious epic of our brothers     Who died on the field of honour while liberating Africa!     The people of Guinea, preaching Unity,     Call to Africa.     Liberty! The voice of a people     Who call all her brothers to find their way again.     Liberty! The voice of a people     Who call all her brothers of a great Africa.     Let us build African Unity in a newly found independence!</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Guinea-Bissau.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Guinea-Bissau.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun, sweat, verdure, and sea,     Centuries of pain and hope;     This is the land of our ancestors.     Fruit of our hands,     Of the flower of our blood:     This is our beloved country.         Chorus:         Long live our glorious country!         The banner of our struggle         Has fluttered in the skies.         Forward, against the foreign yoke!         We are going to build         Peace and progress         In our immortal country!         Peace and progress         In our immortal country!     Branches of the same trunk,     Eyes in the same light;     This is the force of our unity!     The sea and the land,     The dawn and the sun are singing     That our struggle has borne fruit!         Chorus</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Kenya.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Kenya.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O God of all creation  Bless this our land and nation  Justice be our shield and defender  May we dwell in unity  Peace and liberty  Plenty be found within our borders.  Let one and all arise  With hearts both strong and true  Service be our earnest endeavour  And our homeland of Kenya  Heritage of splendour  Firm may we stand to defend.  Let all with one accord  In common bond united  Build this our nation together  And the glory of Kenya  The fruit of our labour  Fill every heart with thanksgiving.</t>
   </si>
   <si>
     <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Lesotho.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Lesotho.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho, land of our Fathers,     Among the lands it is the most beautiful.     It is where we were born,     It is where we grew up--     We love it.     God, please protect Lesotho.     Spare it conflict, and tribulation--     Oh, this land,     Land of our Fathers,     May it have peace.     Peace.     Rain.     Prosperity.</t>
   </si>
   <si>
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Liberia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Liberia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All hail, Liberia, hail!  All hail, Liberia, hail!  This glorious land of liberty Shall long be ours. Though new her name, Green be her fame, And mighty be her powers, And mighty be her powers, In joy and gladness With our hearts united, We'll shout the freedom Of a race benighted, Long live Liberia, happy land! A home of glorious liberty, By God's command! A home of glorious liberty, By God's command! All hail, Liberia, hail! All hail, Liberia, hail! In union strong success is sure We cannot fail! With God above Our rights to prove We will o'er all prevail, We will o'er all prevail, With heart and hand Our country's cause defending We'll meet the foe With valour unpretending. Long live Liberia, happy land! A home of glorious liberty, By God's command! A home of glorious liberty, By God's command!</t>
   </si>
   <si>
     <t xml:space="preserve">Libya</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Libya.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Libya.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my country, With my struggle and gladiatorial patience, Drive off all enemies' plots and mishaps Be saved, be saved, be saved, be saved all the way We are your sacrifices Libya, Libya, Libya! Oh my country, You're the heritage of my ancestors May Allah not bless any hand that tries to harm you Be saved, we are for ever your soldiers No matter the death toll if you've been saved Take from us the most credential oaths, we won't let you down, Libya We will never be enchained again We are free and have freed our homeland Libya, Libya, Libya! Oh my country, Oh my country, With my struggle and gladiatorial patience, Drive off all enemies' plots and mishaps Be saved, be saved, be saved, be saved all the way We are your sacrifices Libya, Libya, Libya! Our grandfathers stripped a fine determination when the call for struggle was made They marched carrying Qur'an in one hand, and their weapons by the other hand The universe is then full of faith and purity The world is then a place of goodness and godliness Eternity is for our grandfathers They have honoured this homeland Libya, Libya, Libya! Oh my country, Oh my country, With my struggle and gladiatorial patience, Drive off all enemies' plots and mishaps Be saved, be saved, be saved, be saved all the way We are your sacrifices Libya, Libya, Libya! Oh son of Libya, oh son of lions of the wild We're for honour and the honours are for us Since the time of us being honoured, people thanked our generosity and honourableness May Allah bless our Independence Oh Libyans, seek the dizzy heights as a position in mankind Our cubs, be prepared for the foreseen battles Our youths, to prevail Life is only a struggle for homeland Libya, Libya, Libya! Oh my country, Oh my country, With my struggle and gladiatorial patience, Drive off all enemies' plots and mishaps Be saved, be saved, be saved, be saved all the way We are your sacrifices Libya, Libya, Libya!</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Madagascar.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Madagascar.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O, our beloved fatherland, O, fair Madagascar, Our love will never decay, But will last eternally. CHORUS O, Lord Creator, do Thou bless This Island of our Fathers, That she may be happy and prosperous For our own satisfaction. O, our beloved fatherland, Let us be thy servant With body, heart and spirit In dear and worthy service. CHORUS O, our beloved fatherland, May God bless thee, That created all lands; In order He maintains thee.</t>
   </si>
   <si>
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Malawi.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Malawi.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O God bless our land of Malawi, Keep it a land of peace. Put down each and every enemy, Hunger, disease, envy. Join together all our hearts as one, That we be free from fear. Bless our leader, each and every one, And Mother Malawi. Our own Malawi, this land so fair, Fertile and brave and free. With its lakes, refreshing mountain air, How greatly blest are we. Hills and valleys, soil so rich and rare Give us a bounty free. Wood and forest, plains so broad and fair, All - beauteous Malawi. Freedom ever, let us all unite To build up Malawi. With our love, our zeal and loyalty, Bringing our best to her. In time of war, or in time of peace, One purpose and one goal. Men and women serving selflessly In building Malawi.</t>
   </si>
   <si>
     <t xml:space="preserve">Mali</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Mali.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Mali.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At your call, Mali,  So that you may prosper,  Faithful to your destiny,  We shall all be united,  One people, one goal, one faith  For a united Africa.  If the enemy should show himself  Within or without,  On the ramparts,  We are ready to stand and die.  CHORUS For Africa and for you, Mali,  Our banner shall be liberty.  For Africa and for you, Mali,  Our fight shall be for unity.  Oh, Mali of today,  Oh, Mali of tomorrow,  The fields are flowering with hope  And hearts are thrilling with confidence.  Africa is at last arising,  Let us greet this new day.  Let us greet freedom,  Let us march towards unity.  Refound dignity  Supports our struggle.  Faithful to our oath  To make a united Africa,  Together, arise, my brothers,  All to the place where honour calls.  CHORUS  Stand up, towns and countryside,  Stand up, women, stand up young and old,  For the Fatherland on the road  Towards a radiant future.  For the sake of our dignity  Let us strengthen our ranks;  For the public well-being  Let us forge the common good.  Together, shoulder to shoulder,  Let us work for happiness.  CHORUS  The road is hard, very hard,  That leads to common happiness.  Courage and devotion,  Constant vigilance,  Courage and devotion,  Constant vigilance,  Truth from olden times,  The truths of every day,  Happiness through effort  Will build the Mali of tomorrow.  CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Mauritania</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Mauritania.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Mauritania.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be a helper for God, and censure what is forbidden,  And turn with the law which, which He wants you to follow,  Hold no one to be useful or harmful, except for Him, And walk the path of the chosen one, and die while you are on it! For what was sufficient for the first of us, -- is sufficient for the last one, too. And leave those people who do evil things with respect to God.  They misrepresented him by making him similar, -- and made all kinds of excuses.  They made bold claims, and blackened notebooks. They let the nomads and the sedentary people, -- both make bitter experiences,  And the great sins of their [doctrinal] innovations -- bequeathed small.  And just in case a disputant, calls you to dispute -- about their claims,  Do not, then, dispute on them, except by way of -- an external dispute.</t>
   </si>
   <si>
     <t xml:space="preserve">Mauritius</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Mauritius.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Mauritius.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glory to thee, Motherland, O motherland of mine. Sweet is thy beauty, Sweet is thy fragrance, Around thee we gather As one people, As one nation, In peace, justice and liberty. Beloved country, may God bless thee For ever and ever.</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Morocco.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Morocco.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root of the free, Rising place of the Lights. Forum of glory and its protector. May you perpetuate as its forum and its protector. May you live among the homelands, As an address for grandeur Filling every garden. conveyed by every tongue. With the spirit, With the body, Your son has come, To answer your call. In my mouth and in my blood, Your love stirred up as light and fire. Let’s go brothers! Heading for grandeur, Making the world witness, That we here perpetually live, With the motto: God, homeland, king.</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Mozambique.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Mozambique.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the memory of Africa and the World Beautiful fatherland of that they had dared to fight Mozambique, your name is Freedom The Sun of June forever will shine CHORUS Mozambique, our Glorious Land Rock by rock constructing the new day Millions of arms in one only force O Loved fatherland we go to be successful Joined people from Rovuma to Maputo It harvests the fruits of the combat for the Peace The dream grows waving in the flag It goes cultivating in the certainty of tomorrow Flowers sprouting of the soil of your sweat For mounts, the rivers, the sea We swear for you, O Mozambique No tyrant in will go them to enslave</t>
   </si>
   <si>
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Namibia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Namibia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia land of the brave Freedom fight we have won Glory to their bravery Whose blood waters our freedom  We give our love and loyalty Together in unity Contrasting beautiful Namibia Namibia our country  Beloved land of savannahs Hold high the banner of liberty  CHORUS Namibia our country Namibia motherland We love thee.</t>
   </si>
   <si>
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Niger.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Niger.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throughout great powerful Niger Which makes nature more beautiful, Let us be proud and grateful Of our new freedom! Let us avoid vain quarrels In order to spare ourselves bloodshed, and may the glorious voices Of our race be free of domination! Let us rise in a single leap As high as the dazzling sky, Where stands guard its eternal soul Which will make the country greater! CHORUS Arise! Niger! Arise! May our fruitful labors Rejuvinate the heart of this old continent! And may the song be heard In the four corners of the Earth As the cry of a fair and valliant people! Arise! Niger! Arise! On the ground and on the wave,, To the sound of the drums In their growing rythms Let us always remain united, And may each one respond To this noble future Which tells us: - Go forward!</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Nigeria.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Nigeria.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arise, O compatriots, Nigeria's call obey To serve our Fatherland With love and strength and faith. The labour of our heroes past Shall never be in vain, To serve with heart and might One nation bound in freedom, peace and unity.  O God of creation, Direct our noble cause; Guide our Leaders right: Help our Youth the truth to know, In love and honesty to grow, And living just and true, Great lofty heights attain, To build a nation where peace and justice reign.</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Rwanda.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Rwanda.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda, our beautiful and dear country     Adorned of hills, lakes and volcanoes     Motherland, would be always filled of happiness     Us all your children: Abanyarwanda     Let us sing your glare and proclaim your high facts     You, maternal bosom of us all     Would be admired forever, prosperous and cover of praises.     Invaluable heritage, that God protects to you     You filled us priceless goods     Our common culture identifies us     Our single language unifies us     That our intelligence, our conscience and our forces     Fill you with varied riches     For an unceasingly renewed development.     Our valorous ancestors     Gave themselves bodies and souls     As far as making you a big nation     You overcame the colonial-imperialistic yoke     That has devastated Africa entirely     And has your joy of your sovereign independence     Acquired that constantly we will defend.     Maintain this cape, beloved Rwanda,     Standing, we commit for you     So that peace reigns countrywide     That you are free of all hindrance     That your determination hires progress     That you have excellent relations with all countries     And that finally your pride is worth your esteem.</t>
   </si>
   <si>
     <t xml:space="preserve">Sao Tome and Principe</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Sao_Tome_and_Principe.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Sao_Tome_and_Principe.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total independence, Glorious song of the people, Total independence, Sacred hymn of combat. Dynamism In the national struggle, Eternal oath To the sovereign country of São Tomé and Príncipe. Warriors in the war without weapons, Live flame in the soul of the people, Congregating the sons of the islands Around the Immortal Fatherland. Total independence, total and complete, Building, in progress and peace, With the heroic hands of the people, The happiest nation on earth. CHORUS Total independence, Glorious song of the people, Total independence, Sacred hymn of combat. Working, struggling, struggling and conquering, We go ahead with giant steps In the crusade of the African peoples, Raising the national flag. Voice of the people, present, present and united, Strong beat in the heart of hope To be a hero in the hour of peril, A hero of the Nation's resurgence. CHORUS Total independence, Glorious song of the people, Total independence, Sacred hymn of combat. Dynamism In the national struggle, Eternal oath To the sovereign country of São Tomé and Príncipe.</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Senegal.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Senegal.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound, all of you, your Koras,  Beat the drums,  The red Lion has roared, The Tamer of the bush with one leap has rushed forward Scattering the gloom. Light on our terrors, Light on our hopes. Arise, brothers, Africa behold united! CHORUS Shoulder to shoulder, O people of Sénégal, more than brothers to me, arise! Unite the sea and the springs, Unite the steppe and the forest! Hail, mother Africa, Hail, mother Africa!  Sénégal, thou son of the Lion Arise in the night with great speed, Restore, oh, restore to us the honour of our ancestors, Magnificent as ebony and strong as muscles! We are a straight people-the sword has no fault. CHORUS Sénégal, we make your great design our own: To gather the chicks, sheltering them from kites, To make from them, from East to West, from North to South, A people rising as one, in seamless unity, Yet a people facing all the winds of the earth. CHORUS Sénégal, like thee, like all our heroes, We will be stern without hatred, and with open arms. The sword we will put peacefully in its sheath, For work and words will be our weapon. The Bantu is our brother, the Arab, and the White man too. CHORUS But if the enemy violates our frontiers, We will all be ready, weapons in our hands; A people in its faith defying all evil; Young and old, men and women, Death, yes! but not dishonour.</t>
   </si>
   <si>
     <t xml:space="preserve">Seychelles</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Seychelles.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Seychelles.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles, our homeland. Where we live in harmony. Joy, love and peace, We thank God. Let us preserve the beauty of our country And the wealth of our oceans, Which are both precious heritages For the future of our children. Let us stay in unity always Under the colours of our new flag, And toghether for eternity Seychellois, Unite!</t>
   </si>
   <si>
     <t xml:space="preserve">Sierra Leone</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Sierra_Leone.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Sierra_Leone.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High we exalt thee, realm of the free; Great is the love we have for thee; Firmly united ever we stand, Singing thy praise, O native land. We raise up our hearts and our voices on high, The hills and the valleys re-echo our cry; Blessing and peace be ever thine own, Land that we love, our Sierra Leone.  One with a faith that wisdom inspires, One with a zeal that never tires; Ever we seek to honour thy name, Ours is the labour, thine the fame. We pray that no harm on thy children may fall, That blessing and peace may descend on us all; So may we serve thee ever alone, Land that we love, our Sierra Leone.  Knowledge and truth our forefathers spread, Mighty the nations whom they led; Mighty they made thee, so too may we Show forth the good that is ever in thee. We pledge our devotion, our strength and our might, Thy cause to defend and to stand for thy right; All that we have be ever thine own, Land that we love, our Sierra Leone.</t>
   </si>
   <si>
     <t xml:space="preserve">Somalia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Somalia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Somalia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalis wake up,     Wake up and support each other     Support your country     Support them forever.     Stop fighting each other     Come back with strength and joy and be friends again     It's time to look forward and take command     Defeat your enemies and unite once again.     become strong again and again</t>
   </si>
   <si>
     <t xml:space="preserve">South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/South_Africa.html</t>
+    <t xml:space="preserve">http://anthemworld.com/South_Africa.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God bless Africa, Lift her horn on high, Hear our prayers. God bless us Who are Your people. God save our nation, End wars and strife. South Africa. Ringing out from our blue heavens, from our deep seas breaking round; Over everlasting mountains  Where the echoing crags resound</t>
   </si>
   <si>
     <t xml:space="preserve">South Sudan National Anthem MONO</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/South_Sudan_National_Anthem_MONO.html</t>
+    <t xml:space="preserve">http://anthemworld.com/South_Sudan_National_Anthem_MONO.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh God, We praise and glorify you for your grace on South Sudan, Land of great abundance. Uphold us united in peace and harmony. Oh motherland, We rise, raising flag with the guiding star And sing songs of freedom with joy For justice, liberty and prosperity shall for ever more, reign. Oh great patriots, Let us stand up in silence and respect Saluting our martyrs Whose blood cemented our national foundation. We vow to protect our nation. Oh God, bless South Sudan.</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Sudan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Sudan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are the soldiers of God, the soldiers of our homeland, We never betray the call for sacrifice. Death we defy at adversity. Glory we buy with the highest price. This land is ours. So let our Sudan, live long, higher, showing the way among the nations, like a banner. the weird and the burden and shields ye land.</t>
   </si>
   <si>
     <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Swaziland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Swaziland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Lord our God, bestower of the blessings of the Swazi; We give Thee thanks for all our good fortune; We offer thanks and praise for our King And for our fair land, its hills and rivers.  Thy blessings be on all rulers of our Country; Might and power are Thine alone; We pray Thee to grant us wisdom without deceit or malice. Establish and fortify us, Lord Eternal.</t>
   </si>
   <si>
     <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Tanzania.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Tanzania.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Bless Africa. Bless its leaders. Let Wisdom Unity and Peace be the shield of Africa and its people.  CHORUS Bless Africa, Bless Africa, Bless the children of Africa.  God Bless Tanzania. Grant eternal Freedom and Unity To its sons and daughters. God Bless Tanzania and its People.  CHORUS Bless Tanzania, Bless Tanzania, Bless the children of Tanzania.</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Togo.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Togo.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hail to thee, land of our forefathers, Thou who made them strong, peaceful and happy, Men who for posterity cultivated virtue and bravery. Even if tyrants shall come, thy heart yearns towards freedom. Togo arise! Let us struggle without faltering. Victory or death, but dignity. God almighty, Thou alone hast made Togo prosper. People of Togo arise! Let us build the nation. To serve thee in unity is the most burning desire of our hearts.  Let us shout aloud our motto  That nothing can tarnish.  We the only builders of thy happiness and of thy future,  Everywhere let us break chains and treachery, And we swear to thee for ever faith, love, service, untiring zeal,  To make thee yet, beloved Togo, a golden example for humanity.</t>
   </si>
   <si>
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Tunisia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Tunisia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHORUS O defenders of the Nation, hasten to the meeting of glory!  We are ready to die, if it is necessary,  die so that our country will live! This our blood in our veins urges us. There is nobody in our country who refuses to be  in the ranks of its soldiers! We are bound together by our oath of fidelity.  We will live on her soil in dignity  or we will die, for her, in glory.  Be master of your destiny, o my country, and be happy!  Because it is not worth to live without being master  of your sovereignty  My boiling blood and all the wealth I possess, I am ready to sacrifice it for my country and my people.  Glory to you, Tunisia! Greatness of your people,  remain forever proud!  Look at your children launching out, such as lions,  In assault on the enemy on the day of the battle Our heritage, among the nations, is the strength of our arms,  the arms as hard as the rock of these imposing buildings  And which hold high the banner of the country.  This banner makes us proud, and it is proud to be carried by us. Arms that bring us towards the highest tops  Of glory and greatness  And which guarantee the realisation of our ambitions Which will bring misfortune to the enemies of our Fatherland  But who are peaceful with all those who want peace. When the people wants to live, destiny must surely respond Darkness will disappear, chains will certainly break!</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Uganda.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Uganda.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh Uganda! may God uphold thee,     We lay our future in thy hand.     United, free,     For liberty     Together we'll always stand.     Oh Uganda! the land of freedom.     Our love and labour we give,     And with neighbours all     At our country's call     In peace and friendship we'll live.     Oh Uganda! the land that feeds us     By sun and fertile soil grown.     For our own dear land,     We'll always stand,     The Pearl of Africa's Crown.</t>
   </si>
   <si>
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Zambia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Zambia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand and sing of Zambia, proud and free, Land of work and joy in unity, Victors in the struggle for the right, We have won freedom's fight. All one, strong and free.  Africa is our own motherland, Fashion'd with and blessed by God's good hand, Let us all her people join as one, Brothers under the sun. All one, strong and free.  One land and one nation is our cry, Dignity and peace 'neath Zambia's sky, Like our noble eagle in its flight, Zambia, praise to thee. All one, strong and free.  CHORUS: Praise be to God. Praise be, praise be, praise be, Bless our great nation, Zambia, Zambia, Zambia. Free men we stand Under the flag of our land. Zambia, praise to thee! All one, strong and free.</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Zimbabwe.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Zimbabwe.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh lift high the banner, the flag of Zimbabwe     The symbol of freedom proclaiming victory;     We praise our heroes' sacrifice,     And vow to keep our land from foes;     And may the Almighty protect and bless our land.     Oh lovely Zimbabwe, so wondrously adorned     With mountains, and rivers cascading, flowing free;     May rain abound, and fertile fields;     May we be fed, our labour blessed;     And may the Almighty protect and bless our land.     Oh God, we beseech Thee to bless our native land;     The land of our fathers bestowed upon us all;     From Zambezi to Limpopo     May leaders be exemplary;     And may the Almighty protect and bless our land.</t>
   </si>
   <si>
     <t xml:space="preserve">Americas</t>
@@ -368,229 +512,340 @@
     <t xml:space="preserve">Antigua and Barbuda</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Antigua_and_Barbuda.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Antigua_and_Barbuda.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair Antigua and Barbuda     We thy sons and daughters stand     Strong and firm in peace or danger,     To safeguard our native land:     We commit ourselves to building     A true nation, brave and free!     Ever striving, ever seeking     Dwell in love and unity.     Raise the standard! Raise it boldly!     Answer now to duty call:     To the service of your country,     Sparing nothing giving all!     Gird your loins and join the battle     Gainst fear hate and poverty:     Each endeavouring, all achieving,     Live in peace where man is free!     God of nations, let thy blessing     Fall upon this land ours     Rain and sunshine ever sending     Fill her fields with crops and flowers:     We, her children do implore thee:     Give us strength, faith, loyalty:     Never failing, all enduring     To defend her liberty.</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina - Long</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Argentina_-_Long.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Argentina_-_Long.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hear, mortals, the sacred cry: "Freedom! Freedom! Freedom!" Hear the noise of broken chains, see the noble Equality enthroned. For their most honourable throne has been opened By the United Provinces of the South. And the free ones of the world reply: "To the great Argentine people, hail!" "To the great Argentine people, hail!" And the free ones of the world reply: "To the great Argentine people, hail!" And the free ones of the world reply: "To the great Argentine people, hail!" May the laurels be eternal, the ones we managed to win, the ones we managed to win. Let us live crowned in glory... or let us swear in glory to die! Or let us swear in glory to die! Or let us swear in glory to die!</t>
   </si>
   <si>
     <t xml:space="preserve">Aruba</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Aruba.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Aruba.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba appreciated native land our venerated cradle you may be small and simple but yet you are respected. Chorus: Oh Aruba dear country our rock so beloved our love for you is so strong that nothing can destroy it. (repeat) Your beaches so much admired with palm trees all adorned your coat of arms and flag is the proudness of us all! Chorus The greatness of our people is their great cordiality that God may guide and preserve his love for liberty! Chorus</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bahamas.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bahamas.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lift up your head to the rising sun, Bahamaland;     March on to glory, your bright banners waving high.     See how the world marks the manner of your bearing!     Pledge to excel through love and unity.     Pressing onwards, march together     to a common loftier goal;     Steady sunward, tho' the weather     hide the wide and treachrous shoal.     Lift up your head to the rising sun, Bahamaland,     'Til the road you've trod lead unto your God,     MARCH ON, BAHAMALAND.</t>
   </si>
   <si>
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Barbados.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Barbados.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In plenty and in time of need When this fair land was young, Our brave forefathers sowed the seed From which our pride was sprung A pride that makes no wanton boast Of what it has withstood That binds our hearts from coast to coast The pride of nationhood Chorus: We loyal sons and daughters all Do hereby make it known These fields and hills beyond recall Are now our very own We write our names on history's page With expectations great Strict guardians of our heritage Firm craftsmen of our fate The Lord has been the people's guide For past three hundred years. With Him still on the people's side We have no doubts or fears. Upward and onward we shall go, Inspired, exulting, free, And greater will our nation grow In strength and unity. Chorus</t>
   </si>
   <si>
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Belize.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Belize.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O. Land of the Free by the Carib Sea,     Our manhood we pledge to thy liberty!     No tyrants here linger, despots must flee     This tranquil haven of democracy     The blood of our sires which hallows the sod,     Brought freedom from slavery oppression's rod,     By the might of truth and the grace of God,     No longer shall we be hewers of wood. Refrain:     Arise! ye sons of the Baymen's clan,     Put on your armour, clear the land!     Drive back the tyrants, let despots flee -     Land of the Free by the Carib Sea!     Nature has blessed thee with wealth untold,     O'er mountains and valleys where prairies roll;     Our fathers, the Baymen, valiant and bold     Drove back the invader; this heritage hold     From proud Rio Hondo to old Sarstoon,     Through coral isle, over blue lagoon;     Keep watch with the angels, the stars and moon;     For freedom comes tomorrow's noon.</t>
   </si>
   <si>
     <t xml:space="preserve">Bolivia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bolivia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bolivia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivians, a most favorable destiny has at long last crowned our vows and longings; This land is free, free at last. Its servile state has now finally ceased. The martial turmoil of yesterday, and the horrible clamor of war, are followed today, in harmonious contrast, by sweet hymns of peace and unity. Are followed today, in harmonious contrast, by sweet hymns of peace and unity.</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil - Long</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Brazil_-_Long.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Brazil_-_Long.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The placid banks of Ipiranga heard the resounding cry of a heroic people and in shining rays, the sun of liberty shone in our homeland's skies at this very moment. If the assurance of this equality we achieved by our mighty arms, in thy bosom, O freedom, our chest shall defy death itself! O beloved, idolized homeland, Hail, hail! Brazil, an intense dream, a vivid ray of love and hope descends to earth if in thy lovely, smiling and clear skies the image of the (Southern) Cross shines resplendently. Giant by thine own nature, thou art beautiful, thou art strong, an intrepid colossus, and thy future mirrors thy greatness. Beloved Land amongst a thousand others art thou, Brazil, O beloved homeland! To the sons of this land thou art a gentle mother, beloved homeland, Brazil! Eternally laid on a splendid cradle, by the sound of the sea and the light of the deep sky, thou shinest, O Brazil, finial of America, illuminated by the sun of the New World! Than the most elegant land abroad, thy smiling, pretty prairies have more flowers "Our meadows have more life", "our life" in thy bosom "more love". (*) O beloved, idolized homeland, Hail, hail! Brazil, of eternal love be the symbol the starred banner thou showest forth and proclaim the laurel-green of thy pennant 'Peace in the future and glory in the past.' But if thou raisest the strong gavel of Justice, thou wilt see that a son of thine flees not from battle, nor does he who loves thee fear his very own death. Beloved Land, amongst a thousand others art thou, Brazil, O beloved homeland! To the sons of this land thou art a gentle mother, beloved homeland, Brazil!</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Canada.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Canada.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Canada! Our home and native land! True patriot love in all thy sons command. With glowing hearts we see thee rise, The True North strong and free! From far and wide, O Canada, we stand on guard for thee. God keep our land glorious and free! O Canada, we stand on guard for thee. O Canada, we stand on guard for thee.</t>
   </si>
   <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Chile.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Chile.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure, Chile, is your blue sky Pure breezes cross you as well And your flower-embroidered fields Are the happy copy of Eden Majestic is the white colored mountain That was given to you as a bastion by the Lord That was given to you as a bastion by the Lord And that sea that quietly washes your shore Promises you a splendid future And that sea that quietly washes your shore Promises you a splendid future Chorus Sweet Fatherland accept the vows With which Chile swore at your altars Either the tomb of the free you will be Or the refuge against oppression Either the tomb of the free you will be Or the refuge against oppression Either the tomb of the free you will be Or the refuge against oppression Or the refuge against oppression Or the refuge against oppression</t>
   </si>
   <si>
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Colombia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Colombia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, unfading glory! Oh, inmortal joy! In furrows of pain, the good now germinates. (Repeat)     The fearful night has ceased. Sublime Liberty shines forth the dawning of its invincible light. All of mankind, moaning in chains, understands the words of the one who died on the cross.     Oh, unfading glory! Oh, inmortal joy! In furrows of pain, the good now germinates. (Repeat)</t>
   </si>
   <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Costa_Rica.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Costa_Rica.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble homeland, your beautiful flag Express for us your life: Under the limpid blue of your skies, Peace reigns, white and pure. In the tenacious battle of fruitful toil, That brings a glow to men's faces, Your sons, simple farm hands, Gained eternal renown, esteem and honour, Gained eternal renown, esteem and honour. Hail, gentle country! Hail, loving mother! If anyone should attempt to besmirch your glory, You will see your people, valiant and virile, Exchange their rustic tools for weapons. Hail, O homeland! Your prodigal soil Gives us sweet sustenance and shelter. Under the limpid blue of your sky, May peaceful labour ever continue.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuba</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cuba.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cuba.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasten to battle, men of Bayamo, For the homeland looks proudly to you. You do not fear a glorious death, Because to die for the country is to live. To live in chains Is to live in dishonour and ignominy. Hear the clarion call, Hasten, braves ones, to battle!</t>
   </si>
   <si>
     <t xml:space="preserve">Dominica</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Dominica.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Dominica.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isle of beauty, isle of splendour, Isle to all so sweet and fair, All must surely gaze in wonder At thy gifts so rich and rare. Rivers, valleys, hills and mountains, All these gifts we do extol. Healthy land, so like all fountains, Giving cheer that warms the soul. Dominica, God hath blest thee With a clime benign and bright, Pastures green and flowers of beauty Filling all with pure delight, And a people strong and healthy, Full of godly, rev'rent fear. May we ever seek to praise Thee For these gifts so rich and rare. Come ye forward, sons and daughters Of this gem beyond compare. Strive for honour, sons and daughters, Do the right, be firm, be fair. Toil with hearts and hands and voices. We must prosper! Sound the call, In which ev'ryone rejoices, "All for Each and Each for All."</t>
   </si>
   <si>
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Dominican_Republic.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Dominican_Republic.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brave men of Quisqueya, Let us sing with strong feeling And let us show to the world Our invincible, glorious banner. Hail, O people who, strong and intrepid, Launched into war and went to death! Under a warlike menace of death, You broke your chains of slavery. No country deserves to be free If it is an indolent and servile slave, If the call does not grow loud within it, Tempered by a virile heroism. But the brave and indomitable Quisqueya Will always hold its head high, For if it were a thousand times enslaved, It would a thousand times regain freedom.</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Ecuador.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Ecuador.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We greet you, Oh Fatherland, a thousand times!     Oh Fatherland, Glory be to you! Glory be to you!     Your breast, your breast, overflows,     Your breast overflows with joy and peace;     And your radiant face, your radiant face     is brighter than the sun shining we see,     And your radiant face, your radiant face     is brighter than the sun shining we see.     2nd verse     The worthy sons of the soil     Which magnificently adorns Pichincha,     They always declared you as their sovereign lady     And shed their blood for you.     God observed and accepted that sacrifice,     And this blood was the prolific seed     Of other heroes who amazed the world,     And in turn, of thousands arising around you.     Thousands arising around you, thousands arising around you.     Chorus     III     He yielded at last the fierce Spanish,     And now, oh fatherland, your free existence     The noble and magnificent heritage,     That gave us the heroism happy:     The father's hands we had,     No one tries arrancárnosla now     Excite our anger or vengeful     Wish, foolish or bold, against itself.     IV     Of the heroes iron arm     No land was invincible,     And the high mountain valley     You could hear the roar of the fray;     After the lid flew to victory,     Freedom after the victory came,     And the lion was heard broken     Roar of helplessness and despair     V     No one, oh fatherland, tries it. Shadows     Your glorious heroes watch us,     And the value and pride that inspire     They are omens of victories for you.     Come on fulmíneo iron and lead,     That the idea of ​​war and revenge     Wakes the heroic strength     He did succumb to the fierce Spanish.     VI     And if the new chains prepared     The barbaric injustice of fate,     Pichincha great! you expect death     Of the country and their children to the end;     Sinks to the deep point in your gut     When there in your land, the tyrant     Trample only ashes and in vain     Look for trace to be with you.</t>
   </si>
   <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/El_Salvador.html</t>
+    <t xml:space="preserve">http://anthemworld.com/El_Salvador.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us salute the motherland, Proud to be called her children. To her well-being let us swear Boldly and unceasingly to devote our lives. 1. Of peace enjoyed in perfect happiness, El Salvador has always nobly dreamed. To achieve this has been her eternal proposition, To keep it, her greatest glory. With inviolable faith, she eagerly follows The way of progress In order to fulfil her high destiny And achieve a happy future. A stern barrier protects her Against the clash of vile disloyalty, Ever since the day when her lofty banner, In letters of blood, wrote "Freedom", Wrote "Freedom", wrote "Freedom". CHORUS 2. Freedom is her dogma and her guide; A thousand times she has defended it, And as many times has she repelled The hateful power of atrocious tyranny. Her history has been bloody and sad, Yet at the same time sublime and brilliant, A source of legitimate glory And a great lesson in Spartan pride. Her innate bravery shall not waver: In every man there is an immortal hero Who knows how to maintain the level Of the proverbial valour of old. CHORUS 3. All are self-denying and faithful To the tradition of warlike ardour With which they have always reaped fame By saving the motherland's honour. To respect the rights of others And base her actions on right and justice Is for her, without infamous intrigue, The constant and most firm ambition. And in following this line she persists, Dedicating her tenacious efforts In giving hard battle for battle;  Her happiness is found in peace.  CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Grenada</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Grenada.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Grenada.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hail! Grenada, land of ours, We pledge ourselves to thee, Heads, hearts and hands in unity To reach our destiny. Ever conscious of God, Being proud of our heritage, May we with faith and courage Aspire, build, advance As one people, one family. God bless our nation.</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Guatemala.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Guatemala.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glad (Joyous) Guatemala! may your altar Never be trampled by the tormentor Nor may slaves lick the yoke Nor may tyrants spit upon your face   If tomorrow your sacred soil By foreign invasion is threatened Free into the wind, your beautiful flag To victory or death it shall call   Chorus Free into the wind, your beautiful flag To victory or death it shall call Your people will, with fiery soul, die before being enslaved.</t>
   </si>
   <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Guyana.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Guyana.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear land of Guyana, of rivers and plains     Made rich by the sunshine, and lush by the rains,     Set gem-like and fair, between mountains and seas,     Your children salute you, dear land of the free.     Green land of Guyana, our heroes of YORe,     Both bondsmen and free, laid their bones on your shore.     This soil so they hallowed, and from them are we,     All sons of one Mother, Guyana the free.     Great land of Guyana, diverse though our strains,     We're born of their sacrifice, heirs of their pains,     And ours is the glory their eyes did not see,     One land of six peoples, united and free.     Dear land of Guyana, to you will we give,     Our homage, our service, each day that we live;     God guard you, great Mother, and make us to be     More worthy our heritage, land of the free.</t>
   </si>
   <si>
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Haiti.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Haiti.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For our country, For our forefathers, United let us march. Let there be no traitors in our ranks! Let us be masters of our soil. United let us march For our country, For our forefathers. For our forebears, For our country Let us toil joyfully. May the fields be fertile And our souls take courage. Let us toil joyfully For our forebears, For our country. For our country And for our forefathers, Let us train our sons. Free, strong, and prosperous, We shall always be as brothers. Let us train our sons For our country And for our forefathers. For our forebears, For our country, Oh God of the valiant! Take our rights and our life Under your infinite protection, Oh God of the valiant! For our forebears, For our country. For the flag, For our country To die is a fine thing! Our past cries out to us Have a strong soul! To die is a fine thing, For the flag, For our country.</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Honduras.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Honduras.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your flag is a splendor of sky Crossed with a band of snow; And there can be seen, in its sacred depths, Five pale blue stars. In your emblem, which a rough sea With its wild waves shields, Behind the bare summit of a volcano, There is a star of clean light.   Verse I Indian maiden, virgin and beautiful you slept, Of your seas to the resonant song, When lying in your valleys of gold, The bold navigator found you; And on seeing your enrapturing beauty, To the inflowing ideal of your enchantment, The blue hem of your splendid mantle With a kiss of love blessed.</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Jamaica.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Jamaica.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Father bless our land, Guide us with Thy Mighty Hand, Keep us free from evil powers, Be our light through countless hours. To our Leaders, Great Defender, Grant true wisdom from above. Justice, Truth be ours forever, Jamaica, Land we love. Jamaica, Jamaica, Jamaica land we love. Teach us true respect for all, Stir response to duty’s call, Strengthen us the weak to cherish, Give us vision lest we perish. Knowledge send us Heavenly Father, Grant true wisdom from above. Justice, Truth be ours forever, Jamaica, Land we love. Jamaica, Jamaica, Jamaica land we love.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Mexico.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Mexico.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicans, when the war cry is heard, Have sword and bridle ready. Let the earth's foundations tremble At the loud cannon's roar. May the divine archangel crown your brow, Oh fatherland, with an olive branch of peace, For your eternal destiny has been written In heaven by the finger of God. But should a foreign enemy Dare to profane your soil with his tread, Know, beloved fatherland, that heaven gave you A soldier in each of your sons. CHORUS War, war without truce against who would attempt to blemish the honor of the fatherland! War, war! The patriotic banners saturate in waves of blood. War, war! On the mount, in the vale The terrifying cannon thunder and the echoes nobly resound to the cries of union! liberty!  CHORUS  Fatherland, before your children become unarmed Beneath the yoke their necks in sway, May your countryside be watered with blood, On blood their feet trample. And may your temples, palaces and towers crumble in horrid crash, and their ruins exist saying: The fatherland was made of one thousand heroes here.  CHORUS Fatherland, oh fatherland, your sons vow To give their last breath on your altars, If the trumpet with its warlike sound Calls them to valiant battle. For you, the garlands of olive, For them, a glorious memory. For you, the victory laurels, For them, an honoured tomb. CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Netherlands Antilles</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Netherlands_Antilles.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Netherlands_Antilles.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our island in the sea, like gems they seem to be, outstanding from a golden crown of blissful royalty. Though their people and their culture colorful may seem, they yet uniquely blend to be just one family. Bridge So we, your people raise our voice in love and unity Chorus Dear Netherlands Antilles, so beautiful to me. I’m proud to be a part of you, a patriot I shall be. Yes Netherlands Antilles, I pledge my loyalty, To you always will be true; I say may God bless you. 2. So blessed with sunny skies and clear welcoming seas, each island like a link that forms this chain of unity. May differ in our language, yet meet on common ground, When some say "Sweet Antilles", some say "Dushi Antia ta". 3. Yes, proud are we to be identified with you, dear Netherlands Antilles, to you we will be true. So we declare and vow, with dignity and love, Our nation we will always serve, may God keep us as one.</t>
   </si>
   <si>
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Nicaragua.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Nicaragua.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hail to you, Nicaragua. The cannon's voice no longer roars, Nor does the blood of our brothers Stain your glorious bicoloured flag. Nor does the blood of our brothers Stain your glorious bicoloured flag. Peace shines in beauty in your skies, Nothing dims your immortal glory, For work is what earns your laurels And honour is your triumphal ensign.</t>
   </si>
   <si>
     <t xml:space="preserve">Panama</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Panama.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Panama.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finally attained victory In the happy field of union. With glowing splendour, The new nation is illumined. It is necessary to veil with a curtain The Calvary and Cross of the past, And for you to adorn the azure of your skies With the splendid light of concord. Progress fondly touches your homes, In time with the music of a sublime song. You see, roaring at your feet, two oceans Which give direction to your noble mission. CHORUS On your flower-covered soil, Kissed by the warm breeze, Warlike clamour has ended And only brotherly love reigns. Ahead, with spade and stone-mason's hammer! To work, without more delay! In this way we shall be the honour and glory Of this fertile land of Columbus. CHORUS</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Paraguay.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Paraguay.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For three centuries a reign oppressed The unhappy peoples of America, But one day, their anger aroused, they said: "An end to this!" and broke the reign. Our forefathers, fighting magnificently, Displayed their martial glory, And when the august diadem was shattered, They raised the triumphal cap of liberty. CHORUS Paraguayans, Republic or death! It was our strength that gave us our final liberty. Neither tyrants nor slaves can continue, Where unity and equality reign, Where unity and equality reign. A new Rome, the Fatherland shall proudly display Two leaders of name and valor Who, rivals, like Romulus and Remus Divided government and power. Long years, during which Phoebus in the clouds Saw darken the pearl of the South, Today a grand hero appears Raising up again her glory and virtue... CHORUS Europe and the world salute her with applause And also acclaim Invincible bastion of heroism, Magnificent Eden of riches. (But) when discord rumbled all around Which fatally devoured other Peoples, Paraguayans, the sacred ground Was covered by an angel with its wings. CHORUS Oh, how pure, of laurel girded Sweet Fatherland, in this manner you show yourself. In your ensign one sees the colors Of sapphire, diamond, and ruby. In your coat of arms, which the Sun illuminates, Under the cap, one sees the lion. Double image of the strong and the free, And of glories, the memory and crest. CHORUS From the tomb of vile feudalism The national Deity rises free; Oppressors, bend your knees! Compatriots, entone the hymn! Sound the cry, "Republic or death"! Our breasts exhale it with faith, And the mountains repeat its echoes Like giants arising. CHORUS Our Fatherland defends liberty and justice; Tyrants: listen! The laws in its sacred charter Will sustain its heroism in the fight. Against the world, if the world opposes it, If the world dares to insult her security, Battling to avenge we shall know her Or die embracing her. CHORUS Arise, oh People, your splendid sword That strikes with sparkles of God, There is no middle ground between free or slave And an abyss divides the two. In the gentle breezes the Hymn resounds, Repeating with triumphal echo: For the free, renowned glory! For the Fatherland, immortal laurel!</t>
   </si>
   <si>
     <t xml:space="preserve">Peru - Long</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Peru_-_Long.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Peru_-_Long.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are free; let us always be so, And let the sun rather deny its light Than that we should fail the solemn vow Which our country raised to God. For a long time the Peruvian, oppressed, Dragged the ominous chain; Condemned to cruel serfdom, For a long time he moaned in silence. But as soon as the sacred cry of Freedom! was heard on his coasts, He shook off the indolence of the slave, He raised his humiliated head. Already has the roar of the rough chains, that we have heard for three centuries (full) of horror, from the freemen to the sacred cry that the world, speechless, heard, stopped. Everywhere, San Martin, swollen, Freedom! Freedom! he pronounced, and shaking their own ground, the Andes announced it, too, at same voice. Under this influence, the peoples wake, and like a flash, the idea spread, from the Isthmus to the Tierra del Fuego, from the Fire to the Frozen lands. Everyone swears to break that link, that Gaia denied to both Worlds, and tear apart that staff that Spain, so ambitiously held over both. Lima sticks to this solemnous promice, and severely its anger it showed by throwing away the powerles tyran who tried to extend its opression. Its efforts were sealed by the crickets and the furrows in itself that it repaired, it was awarded the hate and revenge, that inherited from its Inca and lord. Fellow countrymen, never see it slaved again, having, humillated, she groamed for three centuries. Forever let us call her free keeping her own splendor. Our hands, so far unarmed, must be always charging our cannons, for some day the bays of Iberia will go under the soreness of its loads. In their top may the Andes support the flag or bicolor banner to the centuries may it announce the effort that free being forever it gave us. Under its shade let's live calm and when sun by its hills will appear let's renovate the great oath we had swore to the Jacob's God</t>
   </si>
   <si>
     <t xml:space="preserve">Puerto Rico</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Puerto_Rico.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Puerto_Rico.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The land of Borinquen     where I have been born     is a flowery garden     of magical beauty.     A constantly clear sky     serves as its canopy     and placid lullabies are sung     by the waves at its feet.     When at her beaches Columbus arrived     full of awe he exclaimed,     "Oh!, oh!, oh!, this is the lovely land     that I seek."     Borinquen is the daughter,     the daughter of the sea and the sun.     Of the sea and the sun,     of the sea and the sun,     of the sea and the sun,     of the sea and the sun.</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Lucia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Saint_Lucia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Saint_Lucia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sons and daughters of Saint Lucia,     love the land that gave us birth,     land of beaches, hills and valleys,     fairest isle of all the earth.     Wheresoever you may roam,     love, oh, love our island home.     Gone the times when nations battled     for this 'Helen of the West',     gone the days when strife and discord     Dimmed her children's toil and rest.     Dawns at last a brighter day,     stretches out a glad new way.     May the good Lord bless our island,     guard her sons from woe and harm!     May our people live united,     strong in soul and strong in arm!     Justice, Truth and Charity,     our ideal for ever be!</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Vincent and Grenadines</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Saint_Vincent_and_Grenadines.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Saint_Vincent_and_Grenadines.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Saint Vincent, Land so beautiful, With joyful hearts we pledge to thee Our loyalty and love, and vow To keep you ever free. Chorus: What e'er the future brings, Our faith will see us through. May peace reign from shore to shore, And God bless and keep us true. 2. Hairoun, Our fair and blessed Isle, Your mountains high, so clear and green, Are home to me, though I may stray, A haven, calm, serene. 3. Our little sister islands are Those gems, the lovely Grenadines, Upon their seas and golden sands The sunshine ever beams.</t>
   </si>
   <si>
     <t xml:space="preserve">St. Kitt's and Nevis</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/St._Kitt's_and_Nevis.html</t>
+    <t xml:space="preserve">http://anthemworld.com/St._Kitt's_and_Nevis.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Land of Beauty!     Our country where peace abounds,     Thy children stand free     On the strength of will and love.     With God in all our struggles,     Saint Kitts and Nevis be     A nation bound together,     With a common destiny.     As stalwarts we stand     For justice and liberty.     With wisdom and truth     We will serve and honour thee.     No sword nor spear can conquer     For God will sure defend.     His blessings shall forever     To posterity extend.</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Suriname.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Suriname.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rise country men, rise The soil of Suriname is calling you. Where ever our ancestors came from We should take care of our country. We are not afraid to fight God is our leader Our whole life until our death, We will fight for Suriname.</t>
   </si>
   <si>
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Trinidad_and_Tobago.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Trinidad_and_Tobago.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forged from the Love of Liberty  in the Fires of Hope and Prayer with boundless faith in our destiny We solemnly declare Side by Side we stand Islands of the blue Caribbean Sea This our native land we pledge our lives to thee Here every creed and race find an equal place And may God bless our nation Here every creed and race find an equal place And may God bless our nation.</t>
   </si>
   <si>
     <t xml:space="preserve">U.S.A</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/U.S.A.html</t>
+    <t xml:space="preserve">http://anthemworld.com/U.S.A.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, say can you see by the dawn's early light What so proudly we hailed at the twilight's last gleaming? Whose broad stripes and bright stars thru the perilous fight, O'er the ramparts we watched were so gallantly streaming? And the rocket's red glare, the bombs bursting in air, Gave proof thru the night that our flag was still there. Oh, say does that star-spangled banner yet wave O'er the land of the free and the home of the brave? On the shore, dimly seen through the mists of the deep, Where the foe's haughty host in dread silence reposes, What is that which the breeze, o'er the towering steep, As it fitfully blows, half conceals, half discloses? Now it catches the gleam of the morning's first beam, In full glory reflected now shines in the stream: 'Tis the star-spangled banner! Oh long may it wave O'er the land of the free and the home of the brave. And where is that band who so vauntingly swore That the havoc of war and the battle's confusion, A home and a country should leave us no more! Their blood has washed out of their foul footsteps' pollution. No refuge could save the hireling and slave' From the terror of flight and the gloom of the grave: And the star-spangled banner in triumph doth wave O'er the land of the free and the home of the brave. Oh! thus be it ever, when freemen shall stand Between their loved home and the war's desolation! Blest with victory and peace, may the heav'n rescued land Praise the Power that hath made and preserved us a nation. Then conquer we must, when our cause it is just, And this be our motto: "In God is our trust." And the star-spangled banner in triumph shall wave O'er the land of the free and the home of the brave.</t>
   </si>
   <si>
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Uruguay.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Uruguay.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern landsmen, our country or the grave! Freedom, or with glory to die. Eastern landsmen, our country or the grave! Freedom, or with glory to die. This is the vow that our souls take And which we know how, courageously, to fulfil, This is the vow that our souls take And which we know how, courageously, to fulfil, Know how to fulfil, This is the vow that our souls take And which we know how, courageously, to fulfil, Know how to fulfil! Know how to fulfil! Know how to fulfil! Freedom, freedom, eastern landsmen, This cry saved our country, Inflaming its brave men With enthusiasm in fierce battles. Freedom, freedom, eastern landsmen, This cry saved our country, Inflaming its brave men With enthusiasm in fierce battles. We merited the glory of this sacred gift. Let tyrants tremble! Let tyrants tremble! Let tyrants tremble! Ah, in the fight we shall clamour for freedom And, dying still cry for it, And, dying still cry for it, Still cry for it, Still cry for it.</t>
   </si>
   <si>
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Venezuela.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Venezuela.html </t>
   </si>
   <si>
     <t xml:space="preserve">Asia</t>
@@ -599,307 +854,460 @@
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Afghanistan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Afghanistan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortress of Islam, heart of Asia,  Forever free, soil of the Aryans,  Birthplace of great heroes, Fellow traveller of the warriors of the men of God,  God is great! God is great! God is great! Arrow of His faith to the arena of Jihad,  Removing the shackles of suppression,  The nation of freedom, Afghanistan,  Breaks the chains of the oppressed in the world.  God is great! God is great! God is great! Let the lines of the Koran be our order,  Let the banner of faith be on our roof,  With the echoes and the voices going together,  Let national unity be what we strive for, God is great! God is great! God is great! Live happy, live free, live and prosper,  Oh homeland in the light of God's law,  Lift the torch of freedom high,  Become a leader for the people who are oppressed,  God is great! God is great! God is great!</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Armenia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Armenia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Fatherland, free, independent, That has for centuries lived, Is now summoning its sons To the free, independent Armenia. Here is a flag for you, my brother, That I have sewn Over the sleepless nights, And bathed in my tears. Look at it, tricolored, A valuable symbol for us. Let it shine against the enemy, Let you, Armenia, be glorious forever. Death is the same everywhere, A man dies but once, Blessed is the one that dies For the freedom of his nation.</t>
   </si>
   <si>
     <t xml:space="preserve">Azerbaidjan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Azerbaidjan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Azerbaidjan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan! Azerbaijan! The heroic patriotic glorious land! To die for you we are glad and we are ready! If there is need to shed blood, we too are ready! With three color banner live happily! With three color banner live happily! Sacrifices too many done, Every soldier to front has gone! When your chest was field of battle! Come back as a heroic son! Let me see you flourish, Let your enemies perish! I love you, my dear land Be mightier we do wish! To safeguard your sacred land, To hold high your honored flag, To safeguard your sacred land, All the youngsters are eager! Glorious land, glorious land! Azerbaijan! Azerbaijan! Azerbaijan! Azerbaijan</t>
   </si>
   <si>
     <t xml:space="preserve">Bahrain</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bahrain.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bahrain.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Bahrain Our King A symbol of the harmony Its constitution is high in the place and the position Its charter is the way of (method of) sharia, Arabism and the values Long live the kingdom of Bahrain Country of nobles Cradle of peace Its constitution is high in the place and the position Its charter is the way of (method of) sharia, Arabism and the values Long live the kingdom of Bahrain</t>
   </si>
   <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bangladesh.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bangladesh.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Bengal of gold, I love you Forever your skies, your air set my heart in tune as if it were a flute. In Spring, Oh mother mine, the fragrance from your mango-groves makes me wild with joy, Ah, what a thrill! In Autumn, Oh mother mine, in the full-blossomed paddy fields, I have seen spread all over sweet smiles! Ah, what a beauty, what shades, what an affection and what a tenderness! What a quiet have you spread at the feet of banyan trees and along the banks of rivers! Oh mother mine, words from your lips are like Nectar to my ears! Ah, what a thrill! If sadness, Oh mother mine, casts a gloom on your face my eyes are filled with tears!</t>
   </si>
   <si>
     <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bhutan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bhutan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Thunder Dragon Kingdom, where cypresses grow Refuge of the glorious monastic and civil traditions, The King od Druk, precious sovereign, His being is eternal, his reign prosperous The enlightenment teachings thrive and flourish May the people shine like the sun of peace and happiness!</t>
   </si>
   <si>
     <t xml:space="preserve">British Indian Ocean Territory</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/British_Indian_Ocean_Territory.html</t>
+    <t xml:space="preserve">http://anthemworld.com/British_Indian_Ocean_Territory.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I vow to thee, my country, all earthly things above, Entire and whole and perfect, the service of my love; The love that asks no question, the love that stands the test, That lays upon the altar the dearest and the best; The love that never falters, the love that pays the price, The love that makes undaunted the final sacrifice. And there's another country, I've heard of long ago, Most dear to them that love her, most great to them that know; We may not count her armies, we may not see her King; Her fortress is a faithful heart, her pride is suffering; And soul by soul and silently her shining bounds increase, And her ways are ways of gentleness, and all her paths are peace.</t>
   </si>
   <si>
     <t xml:space="preserve">Brunei</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Brunei.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Brunei.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh God Bless His Majesty, With A Long Life Justly And Nobly Rule The Kingdom And Lead Our People Happily Forever Peacefully Be, The Kingdom and Sultan Almighty God, save Brunei, The House of Peace</t>
   </si>
   <si>
     <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cambodia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cambodia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heaven protects our King And gives him happiness and glory To reign over our souls and our destinies, The one being, heir of the Sovereign builders, Guiding the proud old Kingdom. Verse II Temples are asleep in the forest Remembering the glory of the grand kingdom Like a rock the Khmer race is eternal. Let us trust in the fate of Kampuchea The empire which challenges the ages. Verse III Songs rise up from the pagodas To the glory of holy Buddhist faith. Let us be faithful to our ancestors' belief. Thus heaven will lavish its bounty Towards the ancient Khmer country, The Grand Kingdom.</t>
   </si>
   <si>
     <t xml:space="preserve">China</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/China.html</t>
+    <t xml:space="preserve">http://anthemworld.com/China.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arise! All those who don't want to be slaves! Let our flesh and blood forge our new Great Wall! As the Chinese people have arrived at their most perilous time. Every person is forced to expel his very last cry. Arise! Arise! Arise! Our million hearts beating as one, Brave the enemy's fire, March on! Brave the enemy's fire, March on! March on! March on! On!</t>
   </si>
   <si>
     <t xml:space="preserve">East Timor</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/East_Timor.html</t>
+    <t xml:space="preserve">http://anthemworld.com/East_Timor.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatherland, fatherland, East Timor our Nation Glory to the people and to the heroes of our liberation Fatherland, fatherland, East Timor our Nation Glory to the people and to the heroes of our liberation We vanquish colonialism, we cry: Down with imperialism! Free land, free people, No, no to exploitation. Let us go forward, united, firm and determined In the struggle against imperialism, The enemy of people, until final victory, Onward to revolution.</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Georgia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Georgia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My icon is my motherland,     And the whole world is its icon-stand,     Bright mounts and valleys     Are shared with God.     Today our freedom     Sings to the glory of the future,     The dawn star rises up     And shines out between the two seas,     So praise be to freedom,     To freedom be praise!</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/India.html</t>
+    <t xml:space="preserve">http://anthemworld.com/India.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thou art the ruler of the minds of all people, Dispenser of India's destiny. Thy name rouses the hearts of Punjab, Sindhu, Gujarat and Maratha, Of the Dravida and Orissa and Bengal; It echoes in the hills of the Vindhyas and Himalayas, mingles in the music of Yamuna and Ganges and is chanted by the waves of the Indian Ocean. They pray for thy blessings and sing thy praise. The saving of all people waits in thy hand, Thou dispenser of India's destiny. Victory, victory, victory to thee.</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Indonesia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Indonesia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia, our native country,  Our birthplace, Where we all arise to stand guard Over this our Motherland: Indonesia our nationality, Our people and our country. Come then, let us all exclaim Indonesia united. Long live our land, Long live our state, Our nation, our people, and all Arise then, its spirit, Arise, its bodies For Great Indonesia. Chorus Indonesia the Great, independent and free, Our beloved country. Indonesia the Great, independent and free, Long live Indonesia the Great! Indonesia, an eminent country,  Our wealthy country,  There we shall be forever.  Indonesia, the country of our ancestors,  A relic of all of us.  Let us pray  For Indonesia's prosperity:  May her soil be fertile  And spirited her soul,  The nation and all the people.  Conscious be her heart  And her mind  For Indonesia the Great.  Chorus  Indonesia, a sacred country,  Our victorious country:  There we stand  Guarding our true Mother.  Indonesia, a beaming Country,  A country we love with all our heart,  Let's make a vow  That Indonesia be there forever.  Blessed be her people  And her sons,  All her islands, and her seas.  Fast be the country's progress  And the progress of her youth  For Indonesia the Great.</t>
   </si>
   <si>
     <t xml:space="preserve">Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Iran.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Iran.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upwards on the horizon rises the Eastern Sun     The light in the eyes of the Believers in Truth     The Month of Bahman is the brilliance of our faith.     Your message, O Imam, of independence, and freedom, is imprinted on our souls     O Martyrs! Your clamours echo in the ears of time:     Enduring, continuing, and eternal,     The Islamic Republic of Iran</t>
   </si>
   <si>
     <t xml:space="preserve">Iraq</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Iraq.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Iraq.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My homeland, My homeland     Glory and beauty, Sublimity and splendor     Are in your hills, Are in your hills     Life and deliverance, Pleasure and hope     Are in your air, Are in your Air     Will I see you? Will I see you?     Safe and comforted, Sound and honored     Will I see you in your eminence?     Reaching to the stars, Reaching to the stars     My homeland, My homeland     My homeland, My homeland     The youth will not tire, 'till your independence     Or they die, Or they die     We will drink from death     And will not be to our enemies     Like slaves, Like slaves     We do not want, We do not want     An eternal humiliation     Nor a miserable life     We do not want     But we will bring back     Our storied glory, Our storied glory     My homeland, My homeland     The sword and the pen     Not the talk nor the quarrel     Are our symbols, Are our symbols     Our glory and our covenant     And a duty to be faithful     Moves us, moves us     Our glory, Our glory     Is an honorable cause     And a waving standard     O, behold you     In your eminence     Victorious over your enemies     Victorious over your enemies     My homeland, My homeland</t>
   </si>
   <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Israel.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Israel.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as deep in the heart, The soul of a Jew yearns, And forward to the East To Zion, an eye looks Our hope will not be lost, The hope of two thousand years, To be a free nation in our land, The land of Zion and Jerusalem.</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Japan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Japan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May your reign Continue for a thousand, eight thousand generations, Until the pebbles Grow into boulders Lush with moss</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Jordan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Jordan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long live the King! His position is sublime, His banners waving in glory supreme. We achieved our goal, On the day you gave us the mark, A revolution gives us our motivation! Flying over the shoulders of the highest comets. Oh! You king of Arabs, From the best prophet you have.. The honour of dynasty, Talked about in the depths of books! All the youthful men, Are your armed armies His determination never dies out! (translated literally):Getting from your meaning a symbol of well-being! (meaning):Getting from you the manners you have Oh! You king of Arabs, From the best prophet you have.. The honour of dynasty, Talked about in the depths of books! May you stay the light and the guide, A master in being away of all sins and wrong-doing, Living your life happily and well-respected! Under your flying flag rests the glory of all Arabs. Oh! You king of Arabs, From the best prophet you have.. The honour of dynasty, Talked about in the depths of books!</t>
   </si>
   <si>
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Kazakhstan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Kazakhstan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky of golden sun, Steppe of golden seed, Legend of courage - Take a look at my country! From the antiquity Our heroic glory emerged, They did not give up their pride My Kazakh people are strong! Chorus:     My country, my country,     As your flower I will be planted,     As your song I will stream, my country!     My native land – My Kazakhstan! The way was opened to the posterity I have a vast land. Its unity is proper, I have an independent country. It welcomed the time Like an eternal friend, Our country is happy, Such is our country.</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Kuwait.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Kuwait.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait, my country, may you be safe and glorious! May you always enjoy good fortune! You are the cradle of my ancestors, Who put down its memory. With everlasting symmetry, showing all eternity, Those Arabs were heavenly, Kuwait, my country, May you be safe and glorious! May you always enjoy good fortune. Blessed be my Country a homeland for harmony, Warded by true sentry giving their soils aptly, Building high its history, Kuwait, My country, we're for you my Country, Led by faith and loyalty, With its Amir equally, Fencing us all fairly, with warm love and verity, Kuwait, my country, May you be safe and glorious. May you always enjoy good fortune!</t>
   </si>
   <si>
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Kyrgyzstan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Kyrgyzstan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High mountains, valleys and fields     Are our native, holy land.     Our fathers lived amidst the Ala-Too,     Always saving their motherland.         Come on, Kyrgyz people,         Come on to freedom!         Stand up and flourish!         Create your fortune!     We are open for freedom for ages.     Friendship and unity are in our hearts.     The land of Kyrgyzstan, our native state,     Shining in the rays of consent.         Come on, Kyrgyz people,         Come on to freedom!         Stand up and flourish!         Create your fortune!     Dreams of the people came true,     And the flag of liberty is over us.     The heritage of our fathers we will     Pass to our sons for the benefit of people.         Come on, Kyrgyz people,         Come on to freedom!         Stand up and flourish!         Create your fortune!</t>
   </si>
   <si>
     <t xml:space="preserve">Laos</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Laos.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Laos.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For all time the Lao people Have glorified their Fatherland, United in heart, Spirit and vigour as one. Resolutely moving forwards, Respecting and increasing the dignity of the Lao people And proclaiming the right to be their own masters. The Lao people of all origins are equal And will no longer allow imperialists And traitors to harm them. The entire people will safeguard the independence And the freedom of the Lao nation. They are resolved to struggle for victory In order to lead the nation to prosperity.</t>
   </si>
   <si>
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Lebanon.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Lebanon.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of us! For our Country, for our Flag and Glory!     Our valor and our writings are the envy of the ages.     Our mountain and our valley, they bring forth stalwart men.     And to Perfection we devote our words and labor.     All of us! For our Country, for our Flag and Glory!     All of us! For our Country     Our Elders and our children, they await our Country's call,     And on the Day of Crisis they are as Lions of the Jungle.     The heart of our East is ever Lebanon,     May God preserve him until the end of time.     All of us! For our Country, for our Flag and Glory!     All of us! For our Country     The Gems of the East are his land and sea.     Throughout the world his good deeds flow from pole to pole.     And his name is his glory since time began.     The cedars are his pride, his immortality's symbol.     All of us! For our Country, for our Flag and Glory!     All of us! For our Country</t>
   </si>
   <si>
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Malaysia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Malaysia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My country The land where my blood has spilt The people living united and progressive May God bestow blessing and happiness May our King have a successful reign May God bestow blessing and happiness May our King have a successful reign</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Maldives.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Maldives.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We salute you in this national unity.     We salute you, with many good wishes in the national tongue,     Bowing the head in respect to the national symbol.     We salute the flag that has such might ;     It falls into the sphere of victory, fortune and success     With its green and red and white together, and therefore we salute it.     To those heroes who sought out honour and pride for the nation     We give salute today in auspicious verses of remembrance.     May the nation of the Maldivian Islanders advance under guard and protection     And the name of the Maldivian Islanders become great.     Thus we pledge as we salute.     We wish for their freedom and progress in this world     And for their freedom from sorrows, and thus we salute.     With full respect and heartfelt blessing towards religion and our leaders,     We salute you in uprightness and truth.     May the State ever have auspicious honour and respect.     With good wishes for your continuing might, we salute you.</t>
   </si>
   <si>
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Mongolia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Mongolia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our unwavering independent nation     All Mongols' sacred ancestry     All world's good deeds     Always stable, forever continue         With all honest nations of the world         Strengthen our bonds         With all our will and strength         Let's develop our beloved Mongolia     Our great nation's symbol blesses     The peoples' fate supports     Our ancestry, culture and language     Let's forever cherish and prosper         Bright peoples of brave Mongolia         Have freedom and happiness         Key to happiness, column for prosperity         Our great country prosper</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Myanmar.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Myanmar.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where prevail justice and independence, It's our country ... our land. Where prevail equal rights and correct policies, For people to lead a peaceful life, It's our country ... our land. We solemnly pledge to preserve, The Union, and the heritage, for perpetuity. Until the world ends up shattering, long live Burma! We love our land because this is our real inheritance. Until the world ends up shattering, long live Burma! We love our land because this is our real inheritance. We will sacrifice our lives to protect our country, This is our nation, this is our land and it belongs to us. Being our nation and our land, let us do good causes to our nation in unity! And this is our very duty to our invaluable land.         We shall love, forevermore     Burma (Myanmar) the land of our fathers of yore!     We shall love, forevermore     Burma (Myanmar) the land of our fathers of yore!     Giving our lives for our union we fight,     This is our country, our land, ours by right.     We, for her the tasks responsibly shoulder,     As we'll stand in duty to this, our precious land.</t>
   </si>
   <si>
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Nepal.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Nepal.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woven from hundreds of flowers, we are one garland that's Nepali     Spread sovereign from Mechi to Mahakali     A playground for nature's wealth unending     Out of the sacrifice of our braves, a nation free and unyielding     A land of knowledge, of peace, the plains, hills and mountains tall     Indivisible, this beloved land of ours, our motherland Nepal     Of many races, languages, religions, and cultures of incredible sprawl     This progressive nation of ours, all hail Nepal</t>
   </si>
   <si>
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/North_Korea.html</t>
+    <t xml:space="preserve">http://anthemworld.com/North_Korea.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let morning shine on the silver and gold of this land, Three thousand li packed with natural wealth. This is my beautiful fatherland. The glory of a wise people Brought up in a culture brilliant With a history of five millennia long. Let us devote our bodies and minds To supporting this Korea forever. Embracing the atmosphere of Baekdu Mountain, Nest for the spirit of labour, The firm will, bonded with truth, Will go forth to all the world. The country established by the will of the people, Breasting the raging waves with soaring strength. Let us glorify forever this Korea, Limitlessly rich and strong.</t>
   </si>
   <si>
     <t xml:space="preserve">Oman</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Oman.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Oman.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May he live long, strong and supported, Glorified be his leadership. For him we shall lay down our lives. May he live long, strong and supported, Glorified be his leadership. For him we shall lay down our lives. O Oman, since the time of the Prophet We are a dedicated people amongst the noblest Arabs. Be happy! Qaboos has come With the blessing of Heaven. Be cheerful and commend him to the protection of our prayers.</t>
   </si>
   <si>
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Pakistan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Pakistan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessed be the sacred land     Happy be the bounteous realm     Thou symbol of high resolve     O Land of Pakistan!     Blessed be the citadel of faith                 The order of this sacred land     Is the might of the brotherhood of the people     May the nation, the country, and the state     Shine in glory everlasting!     Blessed be the goal of our ambition                 The flag of the crescent and star     Leads the way to progress and perfection     Interpreter of our past, glory of our present     Inspiration for our future!     Shadow of God, the Glorious and Mighty</t>
   </si>
   <si>
     <t xml:space="preserve">Palau</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Palau.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Palau.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau is coming forth with strength and power,     By her old ways abides still every hour.     One country, safe, secure, one government     Under the glowing, floating soft light stands.     Let's build our economy's protecting fence     With courage, faithfulness and diligence     Our life is anchored in Palau, our land     We with our might through life and death defend     In spirit let's join hands, united, one     Care for our homeland...from forefathers on     Look after its concord, its glory keep     Through peace and love and heart's devotion deep     God bless our country, our island home always     Our sweet inheritance from ancient days     Give us strength and power and all the rights     To govern with to all eternity</t>
   </si>
   <si>
     <t xml:space="preserve">Palestine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Palestine.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Palestine.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My country, my country My country, my land, land of my ancestors My redemption, my redemption My redemption, my people, people of eternity With my determination, my fire and the volcano of my vendetta With the longing in my blood for my land and my home I have climbed the mountains and fought the wars I have conquered the impossible, and crossed the frontiers With the resolve of the winds and the fire of the weapons And the determination of my nation in the land of struggle Palestine is my home, Palestine is my fire, Palestine is my vendetta and the land of withstanding By the oath under the shade of the flag By my land and nation, and the fire of pain I will live as a redemption, I will remain a redeemer, I will spend my redemption - until my country returns My redemption</t>
   </si>
   <si>
     <t xml:space="preserve">Papau New Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Papau_New_Guinea.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Papau_New_Guinea.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O arise all you sons of this land,     Let us sing of our joy to be free,     Praising God and rejoicing to be     Papua New Guinea.     Shout our name from the mountains to seas     Papua New Guinea;     Let us raise our voices and proclaim     Papua New Guinea.     Now give thanks to the good Lord above     For His kindness, His wisdom and love     For this land of our fathers so free,     Papua New Guinea.     Shout again for the whole world to hear     Papua New Guinea;     We're independent and we're free,     Papua New Guinea.</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Philippines.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Philippines.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Beloved, Pearl of the Orient, The burning [fervour] of the heart In thy chest is alive. Chosen Land, Cradle Thou [art] of the valourous. To the invaders, Thou shalt never submit. In [the] seas and [the] mountains, in [the] air, and in skies of Thine azure, There is beauty in the poem And [in the] song for freedom beloved. The sparkle of the flag of Thine Is victory that is shining. The Stars and Sun of it Forevermore shall never dim. Land of the sun, of glory, and loving, Life is Heaven in Thine embrace. 'Tis our joy, when there be oppressors, To die because of Thee</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Qatar.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Qatar.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swearing by the one who raised the sky      Swearing by the one who spread the light     Qatar will always be free     By the spirit of the loyal     Travel the high road     Travel by the guiding light of the Prophets     Qatar In my heart is a way     That respects the achievements of our forefathers     Qatar is land of the foremost men     Who protect us in time of distress,     Doves they can be at times of peace,     Warriors they are at times of sacrifice</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Saudi_Arabia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Saudi_Arabia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasten     To glory and supremacy,     Glorify the Creator of the heavens!     And raise the green flag     Carrying the written light reflecting guidance,     Repeat: Allahu Akbar! [1]     O my country!     My country,     Live as the glory of Muslims!     Long live the King     For the flag     And the homeland!</t>
   </si>
   <si>
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Singapore.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Singapore.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come, fellow Singaporeans Let us progress towards happiness together May our noble aspiration bring Singapore success Come, let us unite In a new spirit Together we proclaim Onward Singapore Onward Singapore Come, let us unite In a new spirit Together we proclaim Onward Singapore Onward Singapore</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/South_Korea.html</t>
+    <t xml:space="preserve">http://anthemworld.com/South_Korea.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roses of Sharon and Three thousand Li full of splendid mountains and rivers; Great Koreans, To the Great Korean way, stay always true!   As the pine atop Namsan Peak stands firm, unchanged through wind and frost, as if wrapped in armour, so shall our resilient spirit. The Autumn skies are void and vast, high and cloudless; the bright moon is like our heart, undivided and true.   With this spirit and this mind, let us give all loyalty, in suffering or in joy, to the country's love.</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Sri_Lanka.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Sri_Lanka.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Lanka we salute Thee!     Plenteous in prosperity, Thou,     Beauteous in grace and love,     Laden with grain and luscious fruit,     And fragrant flowers of radiant hue,     Giver of life and all good things,     Our land of joy and victory,     Receive our grateful praise sublime,     Lanka! we worship Thee.     Thou gavest us Knowledge and Truth,     Thou art our strength and inward faith,     Our light divine and sentient being,     Breath of life and liberation.     Grant us, bondage free, inspiration.     Inspire us for ever.     In wisdom and strength renewed,     Ill-will, hatred, strife all ended,     In love enfolded, a mighty nation     Marching onward, all as one,     Lead us, Mother, to fullest freedom.</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Syria.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Syria.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardians of the homeland, upon you be peace, [our] proud spirits refuse to be humiliated. The den of Arabism is a sacred sanctuary, and the throne of the suns is a preserve that will not be subjugated. The quarters of Syria are towers in height, which are in dialogue with the zenith of the skies. A land resplendent with brilliant suns, becoming another sky or almost a sky. The flutter of hopes and the beat of the heart, are on a flag that united the entire country. Is there not blackness from every eye, and ink from every martyr's blood? [Our] spirits are defiant and [our] history is glorious, and our martyrs' souls are formidable guardians. "Al-Walid" is from us and so is "ar-Rashid", so why wouldn't we prosper and why wouldn't we build?</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Taiwan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Taiwan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Principles of the People, The foundation of our party. Using this, we establish the Republic; Using this, we advance into a state of total peace. Oh, you, warriors, For the people, be the vanguard. Without resting day or night, Follow the Principles. Swear to be diligent; swear to be courageous. Obliged to be trustworthy; obliged to be loyal. With one heart and one virtue, We carry through until the very end.</t>
   </si>
   <si>
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Tajikistan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Tajikistan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our beloved country, We are happy to see your pride. Let your happiness and prosperity be forever. We have reached this day since ancient times, We stand under your flag. Long live my homeland, my free Tajikistan! You are a symbol of our ancestors' hope Our honour and dignity, You are an eternal world for your sons, Your spring will never end, We remain loyal to you. Long live my homeland, my free Tajikistan! You are a mother for all of us, Your future is our future, Your meaning is the meaning of our souls and bodies, You give us happiness forever, Because of you, we love the world! Long live my homeland, my free Tajikistan!</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Thailand.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Thailand.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand embraces in its bosom all people of Thai blood. Every inch of Thailand belongs to the Thais. It has long maintained its sovereignty, Because the Thais have always been united. The Thai people are peace-loving, But they are no cowards at war. They shall allow no one to rob them of their independence, Nor shall they suffer tyranny. All Thais are ready to give up every drop of blood For the nation's safety, freedom and progress. Hurrah!</t>
   </si>
   <si>
     <t xml:space="preserve">Tibet</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Tibet.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Tibet.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let the radiant light shine of Buddha's wish-fulfilling gem teachings, the treasure chest of all hopes for happiness and benefit in both secular life and liberation. O Protectors who hold the jewel of the teachings and all beings, nourishing them greatly, may the sum of your karmas grow full. Firmly enduring in a diamond-hard state, guard all directions with Compassion and love. Above our heads may divinely appointed rule abide endowed with a hundred benefits and let the power increase of fourfold auspiciousness, May a new golden age of happiness and bliss spread throughout the three provinces of Tibet and the glory expand of religious-secular rule. By the spread of Buddha's teachings in the ten directions, may everyone throughout the world enjoy the glories of happiness and peace. In the battle against negative forces may the auspicious sunshine of the teachings and beings of Tibet and the brilliance of a myriad radiant prosperities be ever triumphant.</t>
   </si>
   <si>
     <t xml:space="preserve">Turkmenistan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Turkmenistan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Turkmenistan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am ready to give life for native hearth The spirit of ancestors descendants are famous for. My land is sacred, my flag flies in the world A symbol of the great neutral country flies. The forever great creation of the people Native land, the sovereign state Forever, the light and song of the soul, Long live and prosper, Turkmenistan! My nation is united and in veins of tribes Ancestors' blood, undying flows. Storms and misfortunes of times are not dreadful for us Let us increase fame and honour. The forever great creation of the people Native land, the sovereign state Forever, the light and song of the soul, Long live and prosper, Turkmenistan!</t>
   </si>
   <si>
     <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/United_Arab_Emirates.html</t>
+    <t xml:space="preserve">http://anthemworld.com/United_Arab_Emirates.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live my country, the unity of our Emirates lives  You have lived for a nation  Whose religion is Islam and guide is the Quran  I made you stronger in God's name oh homeland  My country, My country, My country, My country  God has protected you from the evils of the time  We have sworn to build and work  Work sincerely, work sincerely  As long as we live, we'll be sincere, sincere  The safety has lasted and the flag has lived oh our Emirates  The symbol of Arabism  We all sacrifice for you, we supply you with our blood  We sacrifice for you with our souls oh homeland</t>
   </si>
   <si>
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Uzbekistan.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Uzbekistan.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My sunny free land, happiness and salvation to your people,     You are a warmhearted companion to your friends!     Flourish forever with learning and creativity,     May your glory shine as long as the world exists!         These golden valleys – dear Uzbekistan,         The courageous spirit of your ancestors is with you!         When the great power of the people raged,         (You did) have charmed the world!     The faith of an open-hearted Uzbek does not die out,     The young free generation is a strong wing for you!     Beacon of independence, guardian of peace,     Lover of truth, motherland, flourish forever!         These golden valleys – dear Uzbekistan,         The courageous spirit of your ancestors is with you!         When the great power of the people raged,         (You did) have charmed the world!</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Vietnam.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Vietnam.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldiers of Vietnam, marching onward United in determination to save the country, Our steps resound on the long and arduous road. Our flag, dyed with the blood of victory, bears the spirit of the country. The chariot guns joins in our marching song. Our glorious path is built on the corpses of our foes. Overcoming hardship, together we build our resistance bases. For the People, let us fight ceaselessly, Hasten to the battlefield! Forward! All forward! Vietnam is everlasting.   Soldiers of Vietnam, marching onward The gold star afluttering Leading our people and our land out of misery Joining hands in our effort to build a new life. Rising in unison, breaking the chains. For too long have we swallowed our hatred. Vow to give our lives for a brighter life. For the People, let us fight ceaselessly, Hasten to the battlefield! Forward! All forward! Vietnam is everlasting.</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Yemen.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Yemen.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat, O World, my song.     Echo it over and over again.     Remember, through my joy, each march.     Clothe him with the shining mantles     Of our festivals.     Repeat, O World, my song.     In faith and love am I part of mankind.     An Arab am I in all my life.     My heart beats in tune with Yemen.     No foreigner shall ever dominate over Yemen.</t>
   </si>
   <si>
     <t xml:space="preserve">Europe</t>
@@ -908,361 +1316,541 @@
     <t xml:space="preserve">Aland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Aland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Aland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The land of thousand islands and skerries,     Born from deep beneath the waves     Åland, our Åland, our home it is     Thee we long to meet     Ancient graves beneath the birches     Tells of our thousand year history     We will never forget the land of our Fathers     No matter where we will go     No matter where we will go     Verse 2     Lovely is our Åland when bays and straits     Become blue in the bright days of spring     It's delightful to wander in forest and grove     In the flowered fields of our shores.     Midsummer pole to evening red sky     Is raised by willing hands     Farthest out in the skerry fisher village     Beacons are lit by the young     Beacons are lit by the young     Verse 3     Lovely is our Åland when the froth of waves     is whirling against the mighty precipice     When the church folks steer beneath the stars     Over the icy depths of the sea     Even when storm roars, in the cottages' peace     The song of the spinning wheel is sung     The memory of loving childhood is     Happily praised by the sons     Happily praised by the sons     Verse 4     Never have Alandian women and men     Let the honour of their tribe down     Warfare threatened us, but victoriously yet     We carry the heritage of freedom     Loudly shall it sound, our Swedish language     Spoken with an urging voice     Enlighten our path like a sea mark of flames     Show us where we belong     Show us where we belong</t>
   </si>
   <si>
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Albania.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Albania.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Around our flag we stand united, With one wish and one goal, A sacred oath we bestow upon it Proclaiming loyalty for our salvation. From war abstains only he, Who a traitor is born, He who is a true man is not frightened, But dies a martyr to the cause. With weapons in our hands a-brandished, We will defend our fatherland, Our sacred rights we’ll not relinquish, The foe has no place in our land.</t>
   </si>
   <si>
     <t xml:space="preserve">Andorra</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Andorra.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Andorra.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The great Charlemagne, my Father,     liberated me from the Saracens,     And from heaven he gave me life,     from Meritxell, the great Mother.     I was born a Princess, a Maiden     neutral between two nations.     I am the only remaining daughter,     of the Carolingian empire     A believer and free for eleven centuries,     a believer and free I want to be.     Be the laws of the land my tutors,     and my Princes my defenders!     And my Princes my defenders!</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Austria.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Austria.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land of mountains, land by the stream, Land of fields, land of cathedrals, Land of hammers, with a promising future, Home to great daughters and sons, A nation highly blessed with beauty, Much-praised Austria, Much-praised Austria! Strongly feuded for, fiercely hard-fought for, You lie in the middle of the continent Like a strong heart, Since the early days of the ancestors you have Borne the burden of a high mission, Much tried Austria, Much tried Austria. Bravely towards the new ages See us striding, free, and faithful, Assiduous and full of hope, Unified, in jubilation choirs, let us Pledge allegiance to you, Fatherland Much beloved Austria, Much beloved Austria.</t>
   </si>
   <si>
     <t xml:space="preserve">Basque</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Basque.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Basque.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up and up Basque Country         glory and glory         to its Good Lord from above.         There is an oak tree in Biscay         old, strong, healthy         it as its law         On the tree we find         the holy cross         always on our top         Sing "Up Basque Country"         glory and glory         to its Good Lord from above</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Belarus.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Belarus.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We, Belarusians, are peaceful people, Whole heartedly devoted to our Motherland. We are faithful friends, growing up and Living in a hardworking and independent family. Refrain Glory to the blessed name of our land, Glory to the brotherly union of peoples! Our dearly beloved Motherland, May you live long and prosper, Belarus! (Repeat Last two lines) Together with our brothers, we for centuries Courageously defended our home’s threshold. In battles for freedom, and battles for our lot We have won our banners of victory! Refrain Friendship of peoples is the strength of peoples And it is our sacred sunlit path. Proudly we fly in the clear blue skies, The banner of victory, the sunshine's flag!</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Belgium.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Belgium.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O dear Belgium, O holy land of our fathers -     Our soul and our hearts are devoted to you!     With blood to spill for you, O fatherland!     We swear with one cry - You shall live!     So gladly bloom in beauty full,     Into what freedom has taught you to be,     And evermore shall sing your sons:     The King, and Law, and Liberty!     Faithful to the word that you may speak boldly,     For King, for Freedom and for Law!     To Law and King and Freedom, hail!     The King, and Law, and Liberty!</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia-Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bosnia-Herzegovina.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bosnia-Herzegovina.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I pledge my loyalty to you  My thousand-year old land  From the Száva to the sea  From the Drina to the Una  You are unique  The only homeland I have  You are unique  Bosnia and Herzegovina  May God save you  For the generations to come  You are the land of my dreams  The land of my forefathers</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Bulgaria.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Bulgaria.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proud Balkan Mountains, next to it the Danube sparkles, the sun shines over Thrace, and blazes over Pirin. Refrain: (twice) Dear Motherland, you are heaven on earth, your beauty, your loveliness, ah, they are boundless. Countless fighters died, for our beloved nation, mother, give us manly strength to continue their path.* Together, Bulgarian brothers! Moscow is with us in peace and war! A great Party leads Our victorious society.</t>
   </si>
   <si>
     <t xml:space="preserve">Catalonia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Catalonia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Catalonia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalonia triumphant     shall again be rich and bountiful.     Drive away these people,     Who are so conceited and so contemptful.     Refrain:     Strike with your sickle!     Strike with your sickle, defenders of the land!     Strike with your sickle!     Now is the time, reapers.     Now is the time to stand alert.     For when another June comes,     Let us sharpen well our tools.     Refrain     May the enemy tremble,     upon seeing our symbol.     Just as we cut golden ears of wheat,     when the time calls we cut off chains.</t>
   </si>
   <si>
     <t xml:space="preserve">Croatia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Croatia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Croatia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our beautiful homeland,     O so fearless and gracious.     Our fathers' ancient glory,     May you be blessed forever.     Dear, you are our only glory,     Dear, you are our only one,     Dear, we love your plains,     Dear, we love your mountains.     Sava, Drava, keep on flowing,     Danube, do not lose your vigour,     Deep blue sea, tell the world,           That a Croat loves his homeland.     Whilst his fields are kissed by sunshine,     Whilst his oaks are whipped by wild winds,     Whilst his dear ones go to heaven,     Whilst his live heart beats.</t>
   </si>
   <si>
     <t xml:space="preserve">Cyprus</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cyprus.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cyprus.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I shall always recognise you  By the dreadful sword you hold,  As the earth, with searching vision,  You survey, with spirit bold.  'Twas the Greeks of old whose dying  Brought to birth our spirit free.  Now, with ancient valour rising,  Let us hail you, Oh Liberty!  Now, with ancient valour rising,  Let us hail you, Liberty,  Now, with ancient valour rising,  Let us hail you, Liberty!</t>
   </si>
   <si>
     <t xml:space="preserve">Czech</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Czech.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Czech.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is my home, where is my home?  Water bubbles across the meadows,  Pinewoods rustle among crags,  The garden is glorious with spring blossom,  Paradise on earth it is to see.  And this is that beautiful land,  The Czech land, my home.  (repeat)  Where is my home, where is my home?  If, in a heavenly land, you have met  Tender souls in agile frames,  Of clear mind, vigorous and prospering,  And with a strength that frustrates all defiance,  That is the glorious race of the Czechs,  Among Czechs is my home.</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Denmark.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Denmark.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a lovely country     it stands with broad beeches     near the salty eastern beach     It winds itself in hill, valley,     it is called old Denmark     and it is Freja's hall     There sat in former times,     the armour-suited warriors,     rested from conflict     Then they went forward to the enemies' injury,     now their bones are resting     behind the mound's menhir     That country is still lovely,     because the sea waves so blue frolic,     and the foliage stands so green     And noble women, beautiful maidens,     and men and brisk swains     inhabit the Danes' islands     Hail king and fatherland!     Hail every a Dane-citizen,     who works, what he can     Our old Denmark shall endure,     as long as the beech reflects     its top in the blue wave</t>
   </si>
   <si>
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Estonia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Estonia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My fatherland, my joy and happiness, How beautiful you are! I shall not find such ever In this huge wide world Which would be so dear to me As you, my fatherland! You have given me birth And raised me up; I shall thank you always And remain faithful to you 'til death, To me most beloved are you, My precious fatherland! May God watch over you, My precious fatherland! Let Him be your defender And provide bountiful blessings For whatever you undertake, My precious fatherland!</t>
   </si>
   <si>
     <t xml:space="preserve">European Union</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/European_Union.html</t>
+    <t xml:space="preserve">http://anthemworld.com/European_Union.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joy, beautiful spark of the gods, Daughter of Elysium! We enter fire imbibed, Heavenly, thy sanctuary.   Your magic reunites, What strictly divided, All men will become brothers Where your gentle wing bored.</t>
   </si>
   <si>
     <t xml:space="preserve">Faroe Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Faroe_Islands.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Faroe_Islands.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My land, oh most beauteous, possession most dear,     Thou drawest me to thee, embracing me near;     becalmed in the summer, in winter snow covered,     magnificent islands, by God named beloved.     The name which men gave thee when they thee discovered,     Oh, God bless thee, Faroes my land.     Bright gleam, which in summer makes hill-tops so fair;     rough gale, which in winter drives men to despair;     oh life taking storm, oh conquest of soul,     all making sweet music uniting the whole.     Each hoping and trusting, inspiring us all,     To guard thee, O Faroes my land.     And therefore, I kneel down, to Thee God, in prayer,     may peaceful my lot be, and do thou me spare,     my soul cleansed; in glory; I ask Thee to bless,     when I raise my banner and venture the stress.     The sign of my task, be it lifted on high,     To guard thee, O Faroes my land.</t>
   </si>
   <si>
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Finland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Finland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh our land, Finland, fatherland,     echo loudly, golden word!     No valley, no hill,     no water, shore more dear     than this northern homeland,     this precious land of our fathers.     One day from your bud     you will bloom;     From our love shall rise     your hope, glorious joy,     and once in song, fatherland     higher still will ring.</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/France.html</t>
+    <t xml:space="preserve">http://anthemworld.com/France.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye sons of France, awake to glory, Hark, hark! what myriads bid you rise! Your children, wives and white-haired grandsires. Behold their tears and hear their cries! (repeat) Shall hateful tyrants, mischiefs breeding, With hireling hosts, a ruffian band, Affright and desolate the land, While peace and liberty lie bleeding?   To arms, to arms, ye brave! The avenging sword unsheath, March on, march on! All hearts resolv'd On victory or death!   Now, now, the dangerous storm is rolling Which treacherous kings confederate raise! The dogs of war, let loose, are howling, And lo! our fields and cities blaze! (repeat) alt: And lo! our homes will soon invade! And shall we basely view the ruin While lawless force with guilty stride Spreads desolation far and wide With crimes and blood his hands embruing?   To arms, to arms, ye brave!...   With luxury and pride surrounded The vile insatiate despots dare, Their thirst of power and gold unbounded, To mete and vend the light and air! (repeat) Like beasts of burden would they load us, Like gods would bid their slaves adore, But man is man, and who is more? Then shall they longer lash and goad us?   To arms, to arms, ye brave!...   O Liberty, can man resign thee Once having felt thy generous flame? Can dungeons, bolts or bars confine thee Or whips thy noble spirit tame? (repeat) Too long the world has wept, bewailing That falsehood's dagger tyrants wield, But freedom is our sword and shield, And all their arts are unavailing.   To arms, to arms, ye brave!...</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Germany.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Germany.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third stanza (Germany's current National Anthem) Unity and justice and freedom For the German fatherland! For these let us all strive Brotherly with heart and hand! Unity and justice and freedom Are the pledge of fortune;  |: Flourish in this fortune's blessing,   Flourish, German fatherland! :|  Germany, Germany above everything, Above everything in the world, When, for protection and defence, it always takes a brotherly stand together. From the Meuse to the Memel, From the Adige to the Belt,  |: Germany, Germany above everything,   Above everything in the world! :|   German women, German loyalty, German wine and German song Shall retain in the world Their old beautiful chime And inspire us to noble deeds During all of our life.  |: German women, German loyalty,   German wine and German song! :|</t>
   </si>
   <si>
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Greece.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Greece.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recognize you by the fearsome sharpness,     of your sword,     I recognize you by the gleam (in your eyes)     with which you rapidly survey the earth.     From the sacred bones,     of the Hellenes arisen,     and strengthened by your antique bravery,     hail, o hail, Liberty!</t>
   </si>
   <si>
     <t xml:space="preserve">Greenland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Greenland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Greenland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our country, which has become so old your head is all covered with white hair.     Always held us, your children, in your bosom and gave us the riches of your coasts.     As middle children in the family we blossomed here Kalaallit,     we want to call ourselves before your proud and honourable head.     With a burning desire to develop what you have to give, renewing,     removing your obstacles of our desire to move forward, forward.     The way of matured societies is our zealous goal to attain;     the effect of speech and letters we long to behold.     Humbleness is not the course, Kalaallit wake up and be proud!     A dignified life is our goal; courageously take a stand.</t>
   </si>
   <si>
     <t xml:space="preserve">Guernsey</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Guernsey.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Guernsey.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarnia; dear Homeland, Gem of the sea.     Island of beauty, my heart longs for thee.     Thy voice calls me ever, in waking, or sleep,     Till my soul cries with anguish, my eyes ache to weep.     In fancy I see thee, again as of yore,     Thy verdure clad hills and thy wave beaten shore.     Thy rock sheltered bays, ah; of all thou art best,     I'm returning to greet thee, dear island of rest. CHORUS     Sarnia Cherie. Gem of the sea.     Home of my childhood, my heart longs for thee.     Thy voice calls me ever, forget thee I'll never,     Island of beauty. Sarnia Cherie.     I left thee in anger, I knew not thy worth.     Journeyed afar, to the ends of the earth.     Was told of far countries, the heav'n of the bold,     Where the soil gave up diamonds, silver and gold.     The sun always shone, and "race" took no part,     But thy cry always reached me, its pain wrenched my heart.     So I'm coming home, thou of all art the best.     Returning to greet thee, dear island of rest.</t>
   </si>
   <si>
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Hungary.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Hungary.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O Lord, bless the nation of Hungary With your grace and bounty Extend toward it your guarding arm During strife with its enemies Long torn by ill fate Bring upon it a time of relief This nation has suffered for all sins Of the past and of the future! 2. You brought our ancestors up Over the Carpathians' holy peaks By You was won a beautiful homeland For Bendegúz's sons And wherever flow the rivers of The Tisza and the Duna Árpád our hero's descendants Will root and bloom. 3. For us on the plains of the Kuns You ripened the wheat In the grape fields of Tokaj You dripped sweet nectar Our flag you often planted On the wild Turk's earthworks And under Mátyás' grave army whimpered Vienna's "proud fort." 4. Hajh, but for our sins Anger gathered in Your bosom And You struck with Your lightning From Your thundering clouds Now the plundering Mongols' arrows You swarmed over us Then the Turks' slave yoke We took upon our shoulders. 5. How often came from the mouths Of Osman's barbarian nation Over the corpses of our defeated army A victory song! How often did your own son agress My homeland, upon your breast, And you became because of your own sons Your own sons' funeral urn! 6. The fugitive hid, and towards him The sword reached into his cave Looking everywhere he could not find His home in his homeland Climbs the mountain, descends the valley Sadness and despair his companions Sea of blood beneath his feet Ocean of flame above. 7. Castle stood, now a heap of stones Happiness and joy fluttered, Groans of death, weeping Now sound in their place. And Ah! Freedom does not bloom From the blood of the dead, Torturous slavery's tears fall From the cold eyes of the orphans! 8. Redeem, O Lord, the Hungarians Who are tossed by waves of danger Extend toward it your guarding arm On the sea of its misery Long torn by ill fate Bring upon it a time of relief They who have suffered for all sins Of the past and of the future!</t>
   </si>
   <si>
     <t xml:space="preserve">Iceland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Iceland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Iceland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, God of our country! Oh, our country's God! We worship Thy name in its wonder sublime. The suns of the heavens are set in Thy crown By Thy legions, the ages of time! With Thee is each day as a thousand years, Each thousand of years, but a day, Eternity's flow'r, with its homage of tears, That reverently passes away. Iceland's thousand years, Iceland's thousand years! Eternity's flow'r, with its homage of tears, That reverently passes away. Our God, our God, we bow to Thee, Our spirits most fervent we place in Thy care. Lord, God of our fathers from age unto age, We are breathing our holiest prayer. We pray and we thank Thee a thousand years, For safely protected we stand; We pray and we bring Thee our homage of tears, Our destiny rest in Thy hand. Iceland's thousand years, Iceland's thousand years! The hoarfrost of morning which tounted those years, Thy sun rising high, shall command! Our country's God! Our God's country! Our life is a feeble and quivering reed; We perish, deprived of Thy spirit and light To redeem and uphold in our need. Inspire us at morn with Thy courage and love, And lead through the days of our strife! At evening send peace from Thy heaven above, And safeguard our nation through life. Iceland's thousand years, Iceland's thousand years! O, prosper our people, diminish our tears And guide, in Thy wisdom, through life!</t>
   </si>
   <si>
     <t xml:space="preserve">Ireland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Ireland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Ireland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldiers are we, whose lives are pledged to Ireland, Some have come from a land beyond the wave, Sworn to be free, no more our ancient sireland, Shall shelter the despot or the slave. Tonight we man the "bearna baoil", In Erin’s cause, come woe or weal, ’Mid cannon’s roar and rifles’ peal, We’ll chant a soldier's song</t>
   </si>
   <si>
     <t xml:space="preserve">Isle of Man</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Isle_of_Man.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Isle_of_Man.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O land of our birth,     O gem of God's earth,     O Island so strong and so fair;     Built firm as Barrule,     Thy Throne of Home Rule     Makes us free as thy sweet mountain air.     When Orry, the Dane,     In Mannin did reign,     'Twas said he had come from above;     For wisdom from Heav'n     To him had been giv'n     To rule us with justice and love.     Our fathers have told     How Saints came of old,     Proclaiming the Gospel of Peace;     That sinful desires,     Like false Baal fires,     Must die ere our troubles can cease.     Ye sons of the soil,     In hardship and toil,     That plough both the land and the sea,     Take heart while you can,     And think of the Man     Who toiled by the Lake Galilee.           When fierce tempests smote         That frail little boat,         They ceased at His gentle command;         Despite all our fear,         The Saviour is near         To safeguard our dear Fatherland.         Let storm-winds rejoice,         And lift up their voice,         No danger our homes can befall;         Our green hills and rocks         Encircle our flocks,         And keep out the sea like a wall.         Our Island, thus blest, No foe can molest;         Our grain and our fish shall increase;         From battle and sword Protecteth the Lord,         And crowneth our nation with peace.         Then let us rejoice         With heart, soul and voice,         And in The Lord's promise confide;         That each single hour         We trust in His power,         No evil our souls can betide.</t>
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Italy.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Italy.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brothers of Italy,                     Italy has woken,                     Bound Scipio's helmet                     Upon her head.                     Where is Victory?                     Let her bow down,[3]                     For God created her                     Slave of Rome. (repeat all)                         CHORUS:                         Let us join in a cohort,                         We are ready to die.[4]                         We are ready to die,                         Italy has called.                         Let us join in a cohort,                         We are ready to die.                         We are ready to die,                         Italy has called! (Yes!)                     We were for centuries                     downtrodden, derided,                     because we are not one people,                     because we are divided.                     Let one flag, one hope                     gather us all.                     The hour has struck                     for us to unite. (repeat all)                         CHORUS                     Let us unite, let us love one another,                     For union and love                     Reveal to the people                     The ways of the Lord.                     Let us swear to set free                     The land of our birth:                     United, for God,                     Who can overcome us? (repeat all)                         CHORUS                     From the Alps to Sicily,                     Legnano is everywhere;                     Every man has the heart                     and hand of Ferruccio                     The children of Italy                     Are all called Balilla;                     Every trumpet blast                     sounds the Vespers. (repeat all)                         CHORUS                     Mercenary swords,                     they're feeble reeds.                     The Austrian eagle                     Has already lost its plumes.                     The blood of Italy                     and the Polish blood                     It drank, along with the Cossack,                     But it burned its heart. (repeat all)</t>
   </si>
   <si>
     <t xml:space="preserve">Jersey</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Jersey.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Jersey.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ours is an Island home Firm on rock and strong by sea Loyal and proud in history, Our thankful hearts are Raised to God for Jersey. 2. The beauty of this land Long inspires both eye and mind. Ours the privilege to guard its shore So help we God that Jersey might through grace endure.</t>
   </si>
   <si>
     <t xml:space="preserve">Karelia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Karelia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Karelia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native land—Karelia!     Ancient and wise country.     One family of brother-nations,     Karelia!     Ring, lakes, and sing, taiga!     Native land, you are dear to me.     High on your mountains I stand     And a song to your glory I sing.     My native land—Karelia!     You have been given to me for all time by fate.     Live long through the centuries, my country,     Karelia!     The heroes of folk tales, amidst the woods and mountains     Still live on our land to this day.     Sing on, o song! Kantele, sing louder yet     In the name of the sacred Karelian land!     My native land—Karelia!     The lively melody of runes and fables.     I see your bright dawn,     Karelia!     I see your radiant dawn,     Karelia!</t>
   </si>
   <si>
     <t xml:space="preserve">Kosovo</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Kosovo.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Kosovo.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(None)</t>
   </si>
   <si>
     <t xml:space="preserve">Latvia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Latvia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Latvia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God bless Latvia, Our beloved fatherland, Do bless Latvia, Oh, do bless it! (repeat) Where the Latvian daughters bloom, Where the Latvian sons sing, Let us dance in happiness there, In our Latvia! (repeat)</t>
   </si>
   <si>
     <t xml:space="preserve">Liechtenstein</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Liechtenstein.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Liechtenstein.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up above the young Rhine Lies Liechtenstein, resting On Alpine heights. This beloved homeland, This dear fatherland Was chosen for us by God's wise hand.   Long live Liechtenstein, Blossoming on the young Rhine, Fortunate and faithful! Long live the Prince of the Land, Long live our fatherland, Through bonds of brotherly love united and free!</t>
   </si>
   <si>
     <t xml:space="preserve">Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Lithuania.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Lithuania.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania, our homeland, Land of heroes! Let your sons draw their strength From our past experience Let your children always follow Only roads of virtue, May your own, mankind’s well-being Be the goals they work for May the sun above our land Banish darkening clouds around Light and truth all along Guide our steps forever May the love of Lithuania Brightly burn in our hearts. For the sake of this land Let unity blossom.</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Luxembourg.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Luxembourg.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Where the Alzette flows through the meadows The Sura bathes the rocks; Where the Moselle, smiling and beautiful We made a present of wine This is our country for which We risk everything on earth; Our homeland and adorable home Our soul which is fulfilled. Our homeland and adorable home Our soul which is fulfilled. (2) In its dark wood crown always guarded by peace, So without pomp and splendor expensive Comfortable love laughing. His people can say is happy And there is no empty dreams: How nice life here but, how far is it from home. How nice life here but, how far is it from home. (3) Singing, singing, mountain and valley The earth that bore us, The "love has a faithful echo conducted in each breast. For a country way too good Every word that sounds out of it, Take the soul as sky tome And our eyes shining like fire. Take the soul as sky tone And our eyes shining like fire. (4) O Thou in heaven that night and day Leads the nation in the world; Excludes the country of Luxembourg The foreign oppression Children we have received from you The spirit of liberty; Let the sun of freedom To shine forever. Let the sun of freedom To shine forever.</t>
   </si>
   <si>
     <t xml:space="preserve">Macedonia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Macedonia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Macedonia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today over Macedonia, is being born the new sun of liberty. The Macedonians fight, for their own rights! The Macedonians fight for their own rights! Now once again the flag flies (that) of the Krushevo Republic Gotse Delchev, Pitu Guli Dame Gruev, Sandanski! Goce Delchev, Pitu Guli Dame Gruev, Sandanski! The Macedonian forests sing new songs and news Macedonia liberated It lives in liberty! Macedonia liberated It lives in liberty! Do not cry dear mother Macedonius, Raise head proudly high, Macedonia free Free to live! Macedonia free Free to live!</t>
   </si>
   <si>
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Malta.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Malta.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guard, Lord, forever, as you´ve done erst and ceasing never, This land whose name we received, our motherly-named Mother. Her you have draped with a light whose grace exceeds all other. On those who govern, sovereign God, bestow understanding, Grant wellness to those who work, largesse to those employing, Make firm, make just all our bonds, the peace we are enjoying.</t>
   </si>
   <si>
     <t xml:space="preserve">Moldova</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Moldova.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Moldova.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A treasure is our tongue that surges     From deep shadows of the past,     Chain of precious stones that scattered     All over our ancient land.     A burning flame is our tongue     Amidst a people waking     From a deathly sleep, no warning,     Like the brave man of the stories.     Our tongue is made of songs     From our soul's deepest desires,     Flash of lighting striking swiftly     Through dark clouds and blue horizons.     Our tongue is the tongue of bread     When the winds blow through the summer,     Uttered by our forefathers who     Blessed the country through their labour.     Our tongue is the greenest leaf     Of the everlasting forests,     Gentle river Dniester's ripples     Hiding starlight bright and shining.     Utter no more bitter cries now     That your language is too poor,     And you will see with what abundance     Flow the words of our precious country.     Our tongue is full of legends,     Stories from the days of old.     Reading one and then another     Makes one shudder, tremble and moan.     Our tongue is singled out     To lift praises up to heaven,     Uttering with constant fervour     Truths that never cease to beckon.     Our tongue is more than holy,     Words of homilies of old     Wept and sung perpetually     In the homesteads of our folks.     Resurrect now this our language,     Rusted through the years that have passed,     Wipe off filth and mould that gathered     When forgotten through our land.     Gather now the sparkling stone,     Catching bright light from the sun.     You will see the endless flooding     Of new words that overflow.     A treasure will spring up swiftly     From deep shadows of the past,     Chain of precious stones that scattered     All over our ancient land.</t>
   </si>
   <si>
     <t xml:space="preserve">Monaco</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Monaco.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Monaco.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forever, in our land,     One flag has flown in the wind     Forever, the colours red and white     Have symbolised our liberty     Great and small [people] have always respected them</t>
   </si>
   <si>
     <t xml:space="preserve">Montenegro</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Montenegro.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Montenegro.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, bright dawn of May Oh, bright dawn of May Our mother Montenegro Our mother Montenegro We are sons of your rocks We are sons of your rocks and keepers of your honesty and keepers of your honesty We love you, the rocky hills And your awesome gorges That never came to know The chains of shameful slavery. Our mother Montenegro Our mother Montenegro 2. Oh, bright dawn of May Oh, bright dawn of May Our mother Montenegro Our mother Montenegro While our unity gives wings to our Lovćen cause Proud shall be, celebrated will be Our dear homeland. A river of our waves, Jumping into two seas, Will bear voice to the ocean, Eternal is our Montenegro! Will bear voice to the ocean, Eternal is our Montenegro! Eternal is our Montenegro!</t>
   </si>
   <si>
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Netherlands.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Netherlands.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">True to the fatherland I remain until death.  Prince of Orange am I, free and fearless.  To the King of Spain I have always given honour.  You, my God and Lord, are my shield, on You I rely.  On You I will build; never leave me,  So that I may remain pious, your servant at all moments,  Dispelling the tyranny that wounds my heart.</t>
   </si>
   <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Norway.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Norway.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, we love this country as it rises forth, rugged, weathered, above the sea, with the thousands of homes. Love, love it and think of our father and mother and the saga night that sends dreams to our earth. 2 This country Harald united with his army of heroes, this country Håkon protected whilst Øyvind sung; upon the country Olav painted with his blood the cross, from its heights Sverre spoke up against Rome. 3 Farmers their axes sharpened wherever an army advanced, Tordenskjold along the coastline thundered so that we could see it back home. Even women stood up and fought as if they were men; others could only cry but that soon would end! 4 Sure, we were not many but we were enough, when we were tested sometimes, and it was at stake; we would rather burn our land than to declare defeat; just remember what happened down at Fredrikshald! 5 Hard times we have coped with, were at last disowned; but in the worst distress, blue-eyed freedom was to us born. It gave (us) father's strength to carry famine and war, it gave death itself its honour - and it gave reconciliation. 6 The enemy threw away his weapon, up the visor went, we, in wonder, to him hastened, because he was our brother. Driven forth to a stand by shame we went to the south; now we three brothers stand united, and shall stand like that! 7 Norwegian man in house and cabin, thank your great God! The country he wanted to protect, although things looked dark. All the fights fathers have fought, and the mothers have wept, the Lord has quietly moved so we won our rights. 8 Yes, we love this country as it rises forth, rugged, weathered, above the sea, with those thousand homes. And as the fathers' struggle has raised it from need to victory, even we, when it is demanded, for its peace will encamp (for defence).</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Poland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Poland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland has not yet perished, So long as we still live. What the alien force has taken from us, We shall retrieve with a sabre.     March, march, Dąbrowski,     From the Italian land to Poland.     Under your command     We shall rejoin the nation. We'll cross the Vistula and the Warta, We shall be Polish. Bonaparte has given us the example Of how we should prevail.     March, march... Like Czarniecki to Poznań After the Swedish occupation, To save our homeland, We shall return across the sea.     March, march... A father, in tears, Says to his Basia Listen, our boys are said To be beating the tarabans.     March, march..</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Portugal.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Portugal.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heroes of the sea, noble people, Brave and immortal nation, Rise once again today, The splendor of Portugal! Among the haze of memory, Oh Fatherland, one feels the voice Of your distinguished forefathers, That shall lead you to victory!   Chorus   To arms, to arms! Over land, over sea, To arms, to arms! For the Fatherland, fight! Against the cannons, march on, march on!   Second stanza   Hoist the undefeated Flag, In the lively light of your sky! May Europe cry out to the whole Earth: Portugal has not perished Kiss your merry ground The Ocean, roaring with love, And your victorious arm Gave new worlds to the World!   Chorus Third stanza Salute the Sun that rises Over a gleeful future; Let the echo of an offense Be the sign for a comeback. Rays of this strong dawn Are like a mother's kisses, That keep us, sustain us, Against the injuries of fate.</t>
   </si>
   <si>
     <t xml:space="preserve">Romani</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Romani.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Romani.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went, I went on long roads I met happy Roma O Roma where do you come from, With tents on happy roads? O Roma, O brothers I once had a great family, The Black Legions murdered them Come with me Roma from all the world For the Roma roads have opened Now is the time, rise up Roma now, We will rise high if we act O Roma, O brothers Open, God, Black doors You can see where are my people. Come back to tour the roads And walk with lucky Romani O Roma, O brothers Up, Gypsy! Now is the time Come with me Roma world Brown face and dark eyes Much as I like black grapes O Roma, O brothers</t>
   </si>
   <si>
     <t xml:space="preserve">Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Romania.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Romania.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up, romanian from the sleep of death, you've been sunken in by the barbarian tyrants! Now or never, it's time to sew yourself a destiny, all your enemies should adore! Now or never, we have to demonstrate the world that in our hands still flows romanian blood and we keep proudly one name in our breats, the glorious name of Traian! Marvellous shadows, Mihai, Stefan, Corvine, look at your successors - the romanian nation! With armed arms, with your fire in their veins, they all shout: "Living in freedom, or death!". Priests with the crucifix on their foreheads a christian army, the motto is freedom and it's aim is sacred. We rather fall in fight, with unflawed glory than beeing slaves again on our own ancient place.</t>
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Russia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Russia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia – our sacred power, Russia – our beloved country. A mighty will, great glory – These are your heritage for all time! Chorus:     Be glorious, our free Fatherland,     Age-old union of fraternal peoples,     Ancestor-given wisdom of the people!     Be glorious, our country! We are proud of you! From the southern seas to the polar lands Spread are our forests and fields. You are unique in the world, one of a kind – This native land protected by God! Chorus Wide spaces for dreams and for living Are opened for us by the coming years Our strength is derived through our loyalty to the Fatherland. Thus it was, thus it is and thus it always will be!</t>
   </si>
   <si>
     <t xml:space="preserve">Saami</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Saami.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Saami.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far up North 'neath Ursa Major     Gently rises Saamiland.     Mountain upon mountain.     Lake upon lake.     Peaks, ridges and plateaus     Rising up to the skies.     Gurgling rivers, sighing forests.     Iron capes pointing sharp     Out towards the stormy sea.     2.     Winter time with storm and cold     Fierce blizzards.     Saami kin, with hearts and souls     Their lands do love.     Moonlight for the traveller,     Living Aurora flickering,     Grunt of reindeer heard in groves of birch,     Voices over lakes and open grounds,     Swish of sled on winter road.     3.     Summer's sun casts golden hues     On forests, seas and shores.     Fishermen in gold, swaying     With the golden seas, golden lakes.     Silver Saami rivers gurgling     'round sparkling poles, shining oars.     Singing, men float down     Rapids, great and small,     And waters calm.     4.     Saamiland's people     With unbending strength     Defeated killing enemies, bad trades,     Sly and evil thieves.     Hail thee, tough Saami kin!     Hail thee, root of freedom!     Never was there battle,     Never brother's blood was spilt     Amongst the peaceful Saami kin.     5.     Our ancestors long ago     Trouble makers did defeat.     Let us, brothers, also resist     Staunchly our oppressors.     Oh, tough kin of the sun’s sons,     Never shall you be subdued     If you heed your golden Saami tongue,     Remember the ancestors' word.     Saamiland for Saami!</t>
   </si>
   <si>
     <t xml:space="preserve">San Marino</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/San_Marino.html</t>
+    <t xml:space="preserve">http://anthemworld.com/San_Marino.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ancient Republic honour to you, virtuous honour to you (repeat stanza) Generous fidelity, O virtuous one. O Republic, Honour and eternal life, with the life and glory of Italy O Republic honour to you.</t>
   </si>
   <si>
     <t xml:space="preserve">Scotland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Scotland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Scotland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. O Flower of Scotland, When will we see your like again That fought and died for Your wee bit hill and glen. And stood against him, Proud Edward's army, And sent him homeward To think again. 2. The hills are bare now, And autumn leaves lie thick and still O'er land that is lost now, Which those so dearly held That stood against him, Proud Edward's army And sent him homeward To think again. 3. Those days are past now And in the past they must remain But we can still rise now And be the nation again! That stood against him Proud Edward's army And sent him homeward To think again. 4. O Flower of Scotland, When will we see your like again That fought and died for Your wee bit hill and glen. And stood against him, Proud Edward's army, And sent him homeward To think again.</t>
   </si>
   <si>
     <t xml:space="preserve">Serbia-Montenegro</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Serbia-Montenegro.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Serbia-Montenegro.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of Justice; Thou who saved us when in deepest bondage cast, Hear Thy Serbian children's voices, Be our help as in the past. With Thy mighty hand sustain us, Still our rugged pathway trace; God, our hope; protect and cherish, Serbian lands and Serbian race! Bind in closest links our kindred Teach the love that will not fail, May the loathed fiend of discord Never in our ranks prevail. Let the golden fruits of union Our young tree of freedom grace; God, our Master! Guide and prosper, Serbian lands and Serbian race! Lord! Avert from us Thy vengeance, Thunder of Thy dreaded ire; Bless each Serbian town and hamlet, Mountain, meadow, heart and spire. When our host goes forth to battle Death or victory to embrace- God of armies! Be our leader, Strengthen then the Serbian race! On our sepulchre of ages Breaks the resurrection morn, From the slough of direst slavery Serbia anew is born. Through five hundred years of durance We have knelt before Thy face, All our kin, O God! Deliver, Thus entreats the Serbian race!</t>
   </si>
   <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Slovakia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Slovakia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is lightning over the Tatras1 Thunders wildly beat Let us stop them, brothers After all they will disappear The Slovaks will revive      That Slovakia of ours Has been fast asleep so far But the thunder's lightnings Are just rousing Her Aby sa prebralo2  To be awoken2</t>
   </si>
   <si>
     <t xml:space="preserve">Slovenia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Slovenia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Slovenia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God's blessing on all nations,  Who long and work for that bright day,  When o'er earth's habitation  No war, no strife shall hold its sway;  Who long to see  That all man free  No more shall foes, but neighbours be.</t>
   </si>
   <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Spain.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Spain.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long live Spain! Let's sing together, with different voices, and only one heart. Long live Spain! From the green valleys, to the immense sea, a hymn of brotherhood. Love the Fatherland, which knows how to embrace, below the blue sky, people in freedom. Glory to the sons, who have given to history, justice and greatness, democracy and peace</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Sweden.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Sweden.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thou ancient, thou free, thou mountainous North     Thou quiet, thou joyful [and] fair!     I greet thee, most beautiful land upon earth,     /:Thy sun, Thy sky, Thy meadows green.:/     2     Thou art enthroned upon memories of great olden days,     When honored thy name flew across the earth,     I know that thou art and wilt remain what thou wast,     /:Yes, I want to live I want to die in the North:/     Additional verses:     3     I forever want to serve thee, my beloved country,     Loyalty until death I want to swear thee,     Thy right I will protect with mind and with hand,     /: thy banner, the heroes carry high.:/     4     With God I shall fight for home and for hearth,     for Sweden, the beloved native soil.     I trade thee not, for anything in a world     /: No, I want to live, I want to die in the North</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Switzerland.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Switzerland.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. When the morning skies grow red     And o'er their radiance shed,     Thou, O Lord, appeareth in their light.     When the Alps glow bright with splendour,     Pray to God, to Him surrender,     For you feel and understand,     For you feel and understand,     That he dwelleth in this land.     That he dwelleth in this land.     2. In the sunset Thou art nigh     And beyond the starry sky,     Thou, O loving Father, ever near     When to Heaven we are departing,     Joy and bliss Thou'lt be imparting,     For we feel and understand     For we feel and understand     That Thou dwellest in this land.     That Thou dwellest in this land.     3. When dark clouds enshroud the hills     And gray mist the valley fills,     Yet Thou art not hidden from Thy sons.     Pierce the gloom in which we cower     With Thy sunshine's cleansing power     Then we'll feel and understand     Then we'll feel and understand     That God dwelleth in this land.     That God dwelleth in this land.     4. Towards us in the wild storm coming,     You yourself give us resistance and stronghold,     You, almighty ruling, rescuing!     During horror and nights of thunderstorms     Let us childlike trust Him!     Yes, we feel and understand;     Yes, we feel and understand;     That God dwelleth in this land.     That God dwelleth in this land.</t>
   </si>
   <si>
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Ukraine.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Ukraine.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine has not yet perished, The glory and the freedom! Still upon us brave brothers, Fate shall smile! Our enemies will vanish Like dew in the sun; We too shall rule In our country.   Soul and body we will lay down For our freedom And show that we brothers Are are of the Cossack nation, Hey, hey dearest brothers Onward take to battle Hey, hey, time to rise, Time to gain freedom!   Our Slavic brothers Already took up arms No one shall see That we should stay behind. Unite together all, Brothers Slavs: So that enemies perish, And freedom comes!</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/United_Kingdom.html</t>
+    <t xml:space="preserve">http://anthemworld.com/United_Kingdom.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God save our gracious Queen!     Long live our noble Queen!     God save the Queen!     Send her victorious,     Happy and glorious,     Long to reign over us:     God save The Queen!     O Lord our God arise,     Scatter her enemies,     And make them fall:     Confound their politics,     Frustrate their knavish tricks,     On Thee our hopes we fix:     God save us all.     Thy choicest gifts in store,     On her be pleased to pour;     Long may she reign:     May she defend our laws,     And ever give us cause     To sing with heart and voice     God save the Queen!</t>
   </si>
   <si>
     <t xml:space="preserve">Vatican City</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Vatican_City.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Vatican_City.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O happy Rome - O noble Rome     You are the seat of Peter, whose blood was shed in Rome,     Peter, to whom the keys of the kingdom of heaven were given.     Pontiff, You are the successor of Peter;     Pontiff, You are the teacher, you confirm your brethren;     Pontiff, You who are the Servant of the servants of God,     and fisher of men, are the shepherd of the flock,     linking heaven and earth.     Pontiff, You are the vicar of Christ on earth,     a rock amidst the waves, You are a beacon in the darkness;     You are the defender of peace, You are the guardian of unity,     watchful defender of liberty; in You is the authority.         SOPRANOS, ALTOS     Pontiff, you are the unshakable rock, and on this rock     was built the Church of God.         TENORS, BASSES     Pontiff, You are the vicar of Christ on earth,     a rock amidst the waves, You are a beacon in the darkness;     You are the defender of peace, You are the guardian of unity,     watchful defender of liberty; in You is the authority.         CHOIR     O happy Rome - O noble Rome.</t>
   </si>
   <si>
     <t xml:space="preserve">Wales</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Wales.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Wales.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The old land of my fathers is dear to me, Land of bards and singers, famous men of renown; Her brave warriors, very splendid patriots, For freedom shed their blood.     Nation [or country], Nation, I am faithful to my Nation.     While the sea [is] a wall to the pure, most loved land,     O may the old language [sc. Cymraeg] endure. Old mountainous Wales, paradise of the bard, Every valley, every cliff, to my look is beautiful. Through patriotic feeling, so charming is the murmur Of her brooks, rivers, to me. If the enemy oppresses my land under his foot, The old language of the Welsh is as alive as ever. The muse is not hindered by the hideous hand of treason, Nor [is] the melodious harp of my country.</t>
   </si>
   <si>
     <t xml:space="preserve">Oceania</t>
@@ -1271,91 +1859,136 @@
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Australia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Australia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australians all let us rejoice, For we are young and free;  We've golden soil and wealth for toil,  Our home is girt by sea;  Our land abounds in Nature's gifts  Of beauty rich and rare;  In history's page, let every stage  Advance Australia fair!  In joyful strains then let us sing,  "Advance Australia fair!"  Beneath our radiant southern Cross,  We'll toil with hearts and hands;  To make this Commonwealth of ours  Renowned of all the lands;  For those who've come across the seas  We've boundless plains to share;  With courage let us all combine  To advance Australia fair.  In joyful strains then let us sing  "Advance Australia fair!"</t>
   </si>
   <si>
     <t xml:space="preserve">Cook Island</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Cook_Island.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Cook_Island.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To God Almighty Ruler of the isles of the sea Hearken our call Protect us Crown us with liberty May peace and love reign supreme throughout the land. God of truth, you are the ruler of our country. Please listen to our voices as we call to you, protect and guide us and give us your crown of truth so we can be successful and so that love and peace will rule forever over our beloved country.</t>
   </si>
   <si>
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Fiji.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Fiji.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessing grant oh God of nations on the isles of Fiji As we stand united under noble banner blue And we honour and defend the cause of freedom ever Onward march together God bless Fiji  CHORUS For Fiji, ever Fiji, let our voices ring with pride. For Fiji ever Fiji her name hail far and wide, A land of freedom , hope and glory to endure what ever befall. May God bless Fiji Forever more! Blessing grant oh God of nations on the isles of Fiji Shores of golden sand and sunshine, happiness and song Stand united , we of Fiji, fame and glory ever Onward march together God bless Fiji.</t>
   </si>
   <si>
     <t xml:space="preserve">Kiribati</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Kiribati.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Kiribati.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand up, Kiribati! Sing with jubilation! Prepare to accept responsibility And to help each other! Be steadfastly righteous! Love all our people! Be steadfastly righteous! Love all our people! The attainment of contentment And peace by our people Will be achieved when all Our hearts beat as one, Love one another! Promote happiness and unity! Love one another! Promote happiness and unity! We beseech You, O God, To protect and lead us In the days to come. Help us with Your loving hand. Bless our Government And all our people! Bless our Government And all our people!</t>
   </si>
   <si>
     <t xml:space="preserve">Marshall Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Marshall_Islands.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Marshall_Islands.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My island (heart) lies o'er the ocean;     Like a wreath of flowers upon the sea;     With a (the) light of Maker from far above;     Shining the with the brilliance of rays of life;     Our Father's wondrous creation;     Bequeathed to us, our Motherland;     I'll never leave my dear home sweet home;     God of our forefathers protect and bless forever Marshall Islands.</t>
   </si>
   <si>
     <t xml:space="preserve">Micronesia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Micronesia.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Micronesia.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tis here we are pledging,     with heart and with hand,     Full measure of devotion     to thee, our native land,     Full measure of devotion     to thee, our native land.     Now all join the chorus,     let union abide.     Across all Micronesia     join hands on every side,     Across all Micronesia     join hands on every side.     We all work together,     with hearts, voice and hand,     Till we have made these islands     another promised land,     Till we have made these islands     another promised land.</t>
   </si>
   <si>
     <t xml:space="preserve">Nauru</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Nauru.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Nauru.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru our homeland, the land we dearly love, We all pray for you and we also praise your name. Since long ago you have been the home of our great forefathers And will be for generations yet to come. We all join in together to honour your flag, And we shall rejoice together and say: Nauru for evermore!</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/New_Zealand.html</t>
+    <t xml:space="preserve">http://anthemworld.com/New_Zealand.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of Nations at Thy feet, In the bonds of love we meet, Hear our voices, we entreat, God defend our free land. Guard Pacific's triple star From the shafts of strife and war, Make her praises heard afar, God defend New Zealand.  Men of every creed and race, Gather here before Thy face, Asking Thee to bless this place, God defend our free land. From dissension, envy, hate, And corruption guard our State, Make our country good and great, God defend New Zealand.  Peace, not war, shall be our boast, But, should foes assail our coast, Make us then a mighty host, God defend our free land. Lord of battles in Thy might, Put our enemies to flight, Let our cause be just and right, God defend New Zealand.  Let our love for Thee increase, May Thy blessings never cease, Give us plenty, give us peace, God defend our free land. From dishonour and from shame, Guard our country's spotless name, Crown her with immortal fame, God defend New Zealand.  May our mountains ever be Freedoms ramparts on the sea, Make us faithful unto Thee, God defend our free land. Guide her in the nations' van, Preaching love and truth to man, Working out Thy glorious plan, God defend New Zealand.</t>
   </si>
   <si>
     <t xml:space="preserve">Niue</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Niue.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Niue.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lord in Heaven Who loves Niue Who rules kindly The Almighty Who rules completely over Niue Over Niue, Over Niue Over Niue, Over Niue Who rules completely over Niue Who rules over Niue</t>
   </si>
   <si>
     <t xml:space="preserve">Samoa</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Samoa.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Samoa.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa, arise and raise your banner that is your crown! Oh! see and behold the stars on the waving banner! They are a sign that Samoa is able to lead. Oh! Samoa, hold fast Your freedom for ever! Do not be afraid; as you are founded on God; Our treasured precious liberty. Samoa, arise and wave Your banner that is your crown!</t>
   </si>
   <si>
     <t xml:space="preserve">Solomon Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Solomon_Islands.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Solomon_Islands.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God save our Solomon Islands from shore to shore. Bless all her people and her Lands With Your protecting hands. Joy, Peace, Progress and Prosperity; That men should brothers be, make nations see. Our Solomon Islands, Our Solomon Islands, Our Nation, Solomon Islands, Stands for evermore.</t>
   </si>
   <si>
     <t xml:space="preserve">tokelau</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/tokelau.html</t>
+    <t xml:space="preserve">http://anthemworld.com/tokelau.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The god of Tokelau The god of villages, the god of Tokelau Do bless Tokelau Carefully tend the peaceful ito My land, your custom Your flag that’s waving Of one mind, stand firm as a foundation Tokelau for the god The god of Tokelau</t>
   </si>
   <si>
     <t xml:space="preserve">Tonga</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Tonga.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Tonga.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh Almighty God above, Thou art our Lord and sure defence, In our goodness we do trust Thee And our Tonga Thou dost love; Hear our prayer, for though unseen We know that Thou hast blessed our land; Grant our earnest supplication, Guard and save Tupou our King.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvalu</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Tuvalu.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Tuvalu.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tuvalu for the Almighty" Are the words we hold most dear; For as people or as leaders Of Tuvalu we all share In the knowledge that God Ever rules in heav'n above, And that we in this land Are united in His love. We build on a sure foundation When we trust in God's great law; "Tuvalu for the Almighty" Be our song for evermore! Let us trust our lives henceforward To the King to whom we pray, With our eyes fixed firmly on Him He is showing us the way. "May we reign with Him in glory" Be our song for evermore, for His almighty power Is our strength from shore to shore. Shout aloud in jubilation To the King Whom we adore. "Tuvalu free and united" Be our song for evermore!</t>
   </si>
   <si>
     <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
-    <t xml:space="preserve">http://anthemworld.com/Vanuatu.html</t>
+    <t xml:space="preserve">http://anthemworld.com/Vanuatu.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are happy to proclaim We are the People of Vanuatu!  God has given us this land; This gives us great cause for rejoicing. We are strong, we are free in this land; We are all brothers.  We are happy to proclaim We are the People of Vanuatu!  We have many traditions And we are finding new ways. Now we shall be one People, We shall be united for ever.  We are happy to proclaim We are the People of Vanuatu!  We know there is much work to be done On all our islands. May God, our Father, help us!  We are happy to proclaim We are the People of Vanuatu!</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1734,13 +2367,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1748,13 +2381,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1762,13 +2395,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1776,13 +2409,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1790,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1804,13 +2437,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1818,13 +2451,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1832,13 +2465,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1846,13 +2479,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -1860,13 +2493,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1874,13 +2507,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -1888,13 +2521,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1902,13 +2535,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1916,13 +2549,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1930,13 +2563,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -1944,13 +2577,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -1958,13 +2591,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1972,13 +2605,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -1986,13 +2619,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -2000,13 +2633,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -2014,13 +2647,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2028,13 +2661,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -2042,13 +2675,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -2056,13 +2689,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -2070,13 +2703,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -2084,13 +2717,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -2098,13 +2731,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -2112,13 +2745,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -2126,13 +2759,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -2140,13 +2773,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2154,13 +2787,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -2168,13 +2801,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -2182,13 +2815,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -2196,13 +2829,13 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -2210,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -2224,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -2238,13 +2871,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -2252,13 +2885,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -2266,13 +2899,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -2280,13 +2913,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -2294,13 +2927,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
@@ -2308,13 +2941,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46">
@@ -2322,13 +2955,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47">
@@ -2336,13 +2969,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48">
@@ -2350,13 +2983,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
@@ -2364,13 +2997,13 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50">
@@ -2378,13 +3011,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">
@@ -2392,13 +3025,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
@@ -2406,13 +3039,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53">
@@ -2420,13 +3053,13 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54">
@@ -2434,2337 +3067,2309 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B110" t="s">
-        <v>224</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B112" t="s">
-        <v>228</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>337</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="C121" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>366</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>384</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="C129" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B130" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="C131" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>405</v>
       </c>
       <c r="C135" t="s">
-        <v>275</v>
+        <v>406</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
       <c r="C137" t="s">
-        <v>279</v>
+        <v>412</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B138" t="s">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C140" t="s">
-        <v>285</v>
+        <v>421</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B141" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
       <c r="C141" t="s">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>426</v>
       </c>
       <c r="C142" t="s">
-        <v>289</v>
+        <v>427</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>429</v>
       </c>
       <c r="C143" t="s">
-        <v>291</v>
+        <v>430</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>432</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>433</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
+        <v>434</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s">
-        <v>294</v>
+        <v>436</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
+        <v>437</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>439</v>
       </c>
       <c r="C146" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B147" t="s">
-        <v>299</v>
+        <v>442</v>
       </c>
       <c r="C147" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B148" t="s">
-        <v>301</v>
+        <v>445</v>
       </c>
       <c r="C148" t="s">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B149" t="s">
-        <v>303</v>
+        <v>448</v>
       </c>
       <c r="C149" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="C150" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B151" t="s">
-        <v>307</v>
+        <v>454</v>
       </c>
       <c r="C151" t="s">
-        <v>308</v>
+        <v>455</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B152" t="s">
-        <v>309</v>
+        <v>457</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="C153" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B154" t="s">
-        <v>313</v>
+        <v>463</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B155" t="s">
-        <v>315</v>
+        <v>466</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>467</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B156" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="C156" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="C157" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B158" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="C158" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B159" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B160" t="s">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="C160" t="s">
-        <v>326</v>
+        <v>482</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B161" t="s">
-        <v>327</v>
+        <v>484</v>
       </c>
       <c r="C161" t="s">
-        <v>328</v>
+        <v>485</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B162" t="s">
-        <v>329</v>
+        <v>487</v>
       </c>
       <c r="C162" t="s">
-        <v>330</v>
+        <v>488</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B163" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="C163" t="s">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>493</v>
       </c>
       <c r="C164" t="s">
-        <v>334</v>
+        <v>494</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>495</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B165" t="s">
-        <v>335</v>
+        <v>496</v>
       </c>
       <c r="C165" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B166" t="s">
-        <v>337</v>
+        <v>499</v>
       </c>
       <c r="C166" t="s">
-        <v>338</v>
+        <v>500</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>502</v>
       </c>
       <c r="C167" t="s">
-        <v>340</v>
+        <v>503</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="C168" t="s">
-        <v>342</v>
+        <v>506</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="C169" t="s">
-        <v>344</v>
+        <v>509</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B170" t="s">
-        <v>345</v>
+        <v>511</v>
       </c>
       <c r="C170" t="s">
-        <v>346</v>
+        <v>512</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B171" t="s">
-        <v>347</v>
+        <v>514</v>
       </c>
       <c r="C171" t="s">
-        <v>348</v>
+        <v>515</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>516</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B172" t="s">
-        <v>349</v>
+        <v>517</v>
       </c>
       <c r="C172" t="s">
-        <v>350</v>
+        <v>518</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>519</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="C173" t="s">
-        <v>352</v>
+        <v>521</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>523</v>
       </c>
       <c r="C174" t="s">
-        <v>354</v>
+        <v>524</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B175" t="s">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="C175" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B176" t="s">
-        <v>357</v>
+        <v>529</v>
       </c>
       <c r="C176" t="s">
-        <v>358</v>
+        <v>530</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B177" t="s">
-        <v>359</v>
+        <v>532</v>
       </c>
       <c r="C177" t="s">
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B178" t="s">
-        <v>361</v>
+        <v>535</v>
       </c>
       <c r="C178" t="s">
-        <v>362</v>
+        <v>536</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>537</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B179" t="s">
-        <v>363</v>
+        <v>538</v>
       </c>
       <c r="C179" t="s">
-        <v>364</v>
+        <v>539</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>541</v>
       </c>
       <c r="C180" t="s">
-        <v>366</v>
+        <v>542</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>544</v>
       </c>
       <c r="C181" t="s">
-        <v>368</v>
+        <v>545</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>546</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s">
-        <v>369</v>
+        <v>547</v>
       </c>
       <c r="C182" t="s">
-        <v>370</v>
+        <v>548</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B183" t="s">
-        <v>371</v>
+        <v>550</v>
       </c>
       <c r="C183" t="s">
-        <v>372</v>
+        <v>551</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B184" t="s">
-        <v>373</v>
+        <v>553</v>
       </c>
       <c r="C184" t="s">
-        <v>374</v>
+        <v>554</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B185" t="s">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="C185" t="s">
-        <v>376</v>
+        <v>557</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B186" t="s">
-        <v>377</v>
+        <v>559</v>
       </c>
       <c r="C186" t="s">
-        <v>378</v>
+        <v>560</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>561</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B187" t="s">
-        <v>379</v>
+        <v>562</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>563</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B188" t="s">
-        <v>381</v>
+        <v>565</v>
       </c>
       <c r="C188" t="s">
-        <v>382</v>
+        <v>566</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B189" t="s">
-        <v>383</v>
+        <v>568</v>
       </c>
       <c r="C189" t="s">
-        <v>384</v>
+        <v>569</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>571</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>574</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>575</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B192" t="s">
-        <v>389</v>
+        <v>577</v>
       </c>
       <c r="C192" t="s">
-        <v>390</v>
+        <v>578</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>392</v>
+        <v>581</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B194" t="s">
-        <v>393</v>
+        <v>583</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>584</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B195" t="s">
-        <v>395</v>
+        <v>586</v>
       </c>
       <c r="C195" t="s">
-        <v>396</v>
+        <v>587</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B196" t="s">
-        <v>397</v>
+        <v>589</v>
       </c>
       <c r="C196" t="s">
-        <v>398</v>
+        <v>590</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B197" t="s">
-        <v>399</v>
+        <v>592</v>
       </c>
       <c r="C197" t="s">
-        <v>400</v>
+        <v>593</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>595</v>
       </c>
       <c r="C198" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B199" t="s">
-        <v>403</v>
+        <v>598</v>
       </c>
       <c r="C199" t="s">
-        <v>404</v>
+        <v>599</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>601</v>
       </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>603</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B201" t="s">
-        <v>407</v>
+        <v>604</v>
       </c>
       <c r="C201" t="s">
-        <v>408</v>
+        <v>605</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B202" t="s">
-        <v>409</v>
+        <v>607</v>
       </c>
       <c r="C202" t="s">
-        <v>410</v>
+        <v>608</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="B203" t="s">
-        <v>411</v>
+        <v>610</v>
       </c>
       <c r="C203" t="s">
-        <v>412</v>
+        <v>611</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>612</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>296</v>
+        <v>613</v>
       </c>
       <c r="B204" t="s">
-        <v>413</v>
+        <v>614</v>
       </c>
       <c r="C204" t="s">
-        <v>414</v>
+        <v>615</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>296</v>
+        <v>613</v>
       </c>
       <c r="B205" t="s">
-        <v>415</v>
+        <v>617</v>
       </c>
       <c r="C205" t="s">
-        <v>416</v>
+        <v>618</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B206" t="s">
-        <v>418</v>
+        <v>620</v>
       </c>
       <c r="C206" t="s">
-        <v>419</v>
+        <v>621</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B207" t="s">
-        <v>420</v>
+        <v>623</v>
       </c>
       <c r="C207" t="s">
-        <v>421</v>
+        <v>624</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
+        <v>626</v>
       </c>
       <c r="C208" t="s">
-        <v>423</v>
+        <v>627</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>628</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B209" t="s">
-        <v>424</v>
+        <v>629</v>
       </c>
       <c r="C209" t="s">
-        <v>425</v>
+        <v>630</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>631</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>632</v>
       </c>
       <c r="C210" t="s">
-        <v>427</v>
+        <v>633</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>634</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>635</v>
       </c>
       <c r="C211" t="s">
-        <v>429</v>
+        <v>636</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B212" t="s">
-        <v>430</v>
+        <v>638</v>
       </c>
       <c r="C212" t="s">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>640</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B213" t="s">
-        <v>432</v>
+        <v>641</v>
       </c>
       <c r="C213" t="s">
-        <v>433</v>
+        <v>642</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>643</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B214" t="s">
-        <v>434</v>
+        <v>644</v>
       </c>
       <c r="C214" t="s">
-        <v>435</v>
+        <v>645</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>646</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B215" t="s">
-        <v>436</v>
+        <v>647</v>
       </c>
       <c r="C215" t="s">
-        <v>437</v>
+        <v>648</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>649</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B216" t="s">
-        <v>438</v>
+        <v>650</v>
       </c>
       <c r="C216" t="s">
-        <v>439</v>
+        <v>651</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>652</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B217" t="s">
-        <v>440</v>
+        <v>653</v>
       </c>
       <c r="C217" t="s">
-        <v>441</v>
+        <v>654</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>655</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="B218" t="s">
-        <v>442</v>
+        <v>656</v>
       </c>
       <c r="C218" t="s">
-        <v>443</v>
+        <v>657</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>417</v>
-      </c>
-      <c r="B219" t="s">
-        <v>444</v>
-      </c>
-      <c r="C219" t="s">
-        <v>445</v>
-      </c>
-      <c r="D219" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>417</v>
-      </c>
-      <c r="B220" t="s">
-        <v>446</v>
-      </c>
-      <c r="C220" t="s">
-        <v>447</v>
-      </c>
-      <c r="D220" t="s">
-        <v>7</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
